--- a/EOHMAVSBATDA_WAVSBATDA_Gemma-7b-It_Gemma-7b-It.xlsx
+++ b/EOHMAVSBATDA_WAVSBATDA_Gemma-7b-It_Gemma-7b-It.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,7 @@
           <t>content</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,6 +514,7 @@
 Flipflopidy is a unique and talented artist who defies expectations. With his infectious melodies, whimsical synths, and playful approach to music, he is a rising star in the Danish music landscape and beyond.</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +562,7 @@
 flipflopidy is a rising star in the Danish music scene, captivating audiences with his infectious melodies, whimsical arrangements, and heartfelt emotions. His musical journey is one of playful experimentation and artistic growth, and his future is bright with potential.</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +611,7 @@
 **Note:** The provided text has been updated to include a link to flipflopidy's Instagram page and suggest adding information about his website and Spotify page.</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -650,6 +654,7 @@
 With a string of successful releases and captivating performances under his belt, flipflopidy is a force to be reckoned with. He continues to release captivating music, collaborating with other artists and pushing the boundaries of his genre. Keep an eye out for this rising star, as flipflopidy is undoubtedly one of the most exciting voices in contemporary electro-pop.</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -695,6 +700,7 @@
 flipflopidy is a rising star in the Danish music scene, captivating audiences with his unique blend of musical talent, playful personality, and captivating performances. With his boundless creativity and infectious melodies, he is an artist to watch out for in the years to come.</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -739,6 +745,7 @@
 flipflopidy is a rising star in the Danish music scene and beyond. With his infectious melodies, playful beats, and undeniable charm, he is an artist to watch closely in the years to come.</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -781,6 +788,7 @@
 Flipflopidy's music is a testament to the boundless possibilities of electronic music. With his unique blend of nostalgia, innovation, and artistic vision, he is an artist to watch closely in the years to come.</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -823,6 +831,7 @@
 In his short career, flipflopidy has already achieved notable milestones. His debut EP, "Bubblegum Symphony," received widespread acclaim and landed him on several prominent playlists. He has collaborated with other artists and performed at numerous festivals and venues across Denmark. With his infectious melodies and whimsical style, flipflopidy is a rising star in the Danish music scene and beyond.</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -867,6 +876,7 @@
 Flipflopidy is a rising star in the Danish music scene. With his unique blend of musicality, visual artistry, and playful experimentation, he is an artist who continues to evolve and capture the imagination of audiences.</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -911,6 +921,4131 @@
 Flipflopidy is an artist who defies categorization. His music is a mesmerizing blend of nostalgia and innovation, making him one of the most exciting voices in contemporary electronic music.</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11:19:44.907753</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+Danish artist flipflopidy is a sonic alchemist, weaving together whimsical melodies, driving electro beats, and a touch of melancholia to create a unique sonic tapestry. His music is a delightful blend of catchy hooks, playful synths, and intricate rhythms that unravel and reveal themselves with repeated listens.
+**Early Influences and Artistic Development**
+Flipflopidy's musical journey began with a deep-seated love for artists like MGMT, LCD Soundsystem, and Burial. This influence is evident in his music's eclectic blend of genres, blending the driving energy of electro with the experimental sensibilities of indie rock and the introspective qualities of electronica.
+**A Playful Exploration of Sound**
+Flipflopidy's tracks are like sonic tapestries, meticulously crafted with layers of sound that dance and interact with each other. His use of synths is particularly noteworthy, creating vibrant and playful textures that add depth and character to his music.
+**A Promising Future**
+With releases like "Bubblegum Dreams" and "Sunken Ships," flipflopidy has established himself as one of Denmark's most promising electronic music artists. His music is a testament to the power of playfulness, imagination, and the boundless possibilities of contemporary music.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11:20:49.016117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical melodies and playful arrangements that transport listeners to a realm of musical whimsy. His music is a delightful blend of catchy hooks, experimental sounds, and a touch of Danish melancholy.
+**Musical Playfulness**
+Flipflopidy's tracks are like sonic stories, each one a playful exploration of different musical landscapes. His playful use of vocal samples, unexpected rhythmic shifts, and innovative sound design creates a captivating and unforgettable musical experience.
+**Influences and Collaborations**
+Flipflopidy draws inspiration from a diverse range of influences, including electronic music pioneers like Aphex Twin and Kraftwerk, as well as pop artists like Bjork and Mads. His collaborations with other artists, such as [insert notable collaborations], have further enriched his musical style.
+**A Promising Future**
+With the release of his debut EP, "Bubblegum Dreams," flipflopidy has established himself as a rising star in the Danish music scene. He has also released several captivating singles, including "Space Cow" and "Lollipop Symphony," which have garnered widespread acclaim. His upcoming projects promise to further showcase his unique musical vision and solidify his position as one of the most exciting electro-pop artists to watch.
+**Conclusion**
+Flipflopidy's music is a delightful blend of playful melodies, experimental sounds, and a touch of Danish melancholy. His innovative approach to electro-pop, combined with his captivating performances and promising future releases, make him a true musical gem.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11:21:55.603163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique blend of electro-pop, synth-pop, and indie-pop that is both catchy and introspective. His music is a delightful cocktail of playful melodies, whimsical synths, and a touch of Scandinavian melancholy.
+**Influences and Inspiration**
+Inspired by the likes of MGMT, The Strokes, and Daft Punk, flipflopidy's music is a testament to his diverse musical palette. His songs are characterized by driving rhythms, infectious hooks, and playful use of reverb and delay.
+**Notable Works and Achievements**
+Flipflopidy's debut EP, "Bubblegum Dreams," is a captivating collection of tracks that showcases his ability to craft catchy and uplifting tunes. Notable songs include "Sunken Ships," a bouncy synth-pop anthem, and "Paper Planes," a melancholic yet hopeful ballad.
+**The Scandinavian Touch**
+Flipflopidy's music evokes a sense of Scandinavian melancholy through its introspective lyrics, melancholic synths, and the overall atmospheric production. This melancholic undercurrent adds depth and complexity to his music, creating a unique and captivating sonic experience.
+**Conclusion**
+With his infectious melodies, whimsical approach, and touch of Scandinavian melancholy, flipflopidy is a rising star in the electro-pop scene. His unique blend of genres and his captivating music are sure to resonate with listeners who crave something both catchy and thought-provoking.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11:23:02.888994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting a vibrant and playful blend of electro-pop that defies expectations. His music is a delightful cocktail of catchy melodies, infectious rhythms, and unexpected sonic twists, making him one of the most exciting emerging artists in the Danish music scene.
+**Musical Influences and Inspiration**
+Flipflopidy's musical tapestry is woven from a rich tapestry of influences. He draws inspiration from a diverse range of genres, including synth-pop legends like Depeche Mode and New Order, as well as contemporary artists like CHVRCHES and MGMT. This eclectic mix creates a unique sonic landscape that is both familiar and refreshingly original.
+**Notable Achievements and Releases**
+Flipflopidy has released several EPs and singles, including the critically acclaimed "Bubblegum Symphony" and "Space Cow." He has also performed at numerous festivals and venues across Denmark and beyond.
+**A Vibrant and Playful Artist**
+Flipflopidy's performances are a visual treat, featuring vibrant costumes, playful visuals, and a hint of mischievousness. His music videos are equally captivating, showcasing his artistic vision and playful personality.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his infectious melodies, playful arrangements, and vibrant personality. His unique blend of electro-pop and artistic experimentation promises to continue captivating listeners for years to come.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11:24:06.676337</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting vibrant electro-pop tunes that blend playful melodies with psychedelic soundscapes. His music is a kaleidoscope of colors, bouncing between catchy hooks and introspective verses.
+**Influences and Inspiration**
+Flipflopidy's musical tapestry is woven from diverse inspirations. His childhood memories, the beauty of nature, and the vibrant Danish music scene all contribute to the unique sonic tapestry of his creations. He draws inspiration from artists who push boundaries and experiment with different genres, creating a distinct and captivating sonic identity.
+**Notable Achievements and Collaborations**
+Throughout his career, flipflopidy has released several acclaimed EPs and singles, captivating audiences with his experimental approach and infectious energy. He has collaborated with other talented artists, further expanding his musical horizons. His notable collaborations and achievements are testament to his talent and growing recognition within the music industry.
+**A Promising Future**
+Flipflopidy's music is a delightful blend of sonic experimentation and catchy melodies, making him one of the most exciting new voices in Danish electro-pop. With his boundless creativity, infectious energy, and promising future, flipflopidy is a rising star to watch out for.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11:25:18.072461</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Danish artist flipflopidy paints a sonic landscape where playful melodies meet whimsical synths.** His music is a delightful blend of electro-pop, synth-pop, and indie-pop, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences:**
+Flipflopidy, real name [insert real name], grew up in Denmark and developed a passion for music at a young age. Influenced by artists like MGMT, The Cure, and [insert other influences], he began experimenting with music production and songwriting.
+**Musical Style:**
+Flipflopidy's tracks are characterized by catchy melodies, playful synths, and a dreamy, ethereal atmosphere. His music is both uplifting and melancholic, creating a unique sonic experience.
+**Debut EP and Beyond:**
+Flipflopidy's debut EP, "Flipflopidy's First Splash," is a delightful collection of catchy tunes that showcases his diverse musical influences. His music has been featured on several playlists and blogs, and he has performed at various festivals and venues.
+**Connect with Flipflopidy:**
+* Website: [insert website link]
+* Instagram: [insert Instagram link]
+* Spotify: [insert Spotify link]
+**Conclusion:**
+Flipflopidy is a rising star in the Danish music scene. With his infectious melodies, whimsical approach to music, and growing fanbase, he is an artist to watch out for.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11:26:23.684569</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Introduction:**
+Danish artist flipflopidy is a sonic alchemist, crafting a captivating blend of electro-pop that has captivated audiences worldwide. His music is a delightful fusion of catchy melodies, driving beats, and playful synths, resulting in a unique and unforgettable musical experience.
+**Early Influences and Inspiration:**
+Flipflopidy's musical journey began in a musical household, where he was exposed to a diverse range of genres, from traditional Danish folk tunes to the electronic sounds of the 80s. This rich tapestry of influences is evident in his music, creating a sonic tapestry that is both familiar and unexpected.
+**Musical Alchemy:**
+His music is a delightful blend of genres, including electropop, synth-pop, and indie rock. His songs are characterized by infectious melodies, driving basslines, and playful synths, creating an addictive sonic experience that transcends borders.
+**Notable Works:**
+Flipflopidy's debut album, "Luminous Shadows," features a collection of mesmerizing tracks, including the electro-pop anthems "Heartbeat Symphony" and "Echoes of Summer." His subsequent releases, "Neon Shadows" and "Cosmic Echoes," have further solidified his status as one of the most promising electro-pop artists in Europe.
+**International Recognition:**
+His music has garnered international attention, with releases landing on prominent playlists on Spotify, Apple Music, and SoundCloud. He has also performed at numerous festivals across Europe, showcasing his captivating live performances.
+**Conclusion:**
+Flipflopidy is a rising star in the electro-pop scene, and his unique blend of musical influences, catchy melodies, and playful approach to music promise to continue captivating audiences for years to come.
+**Call to Action:**
+To explore more of flipflopidy's work, check out his official website or follow him on social media. His music is available on all major streaming platforms.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11:27:41.376659</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a captivating blend of electro-pop that is both playful and profound. His music is a delightful dance between catchy melodies, driving beats, and unexpected sonic surprises.
+**Influences and Inspiration**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's tracks are a sonic tapestry woven from synths, drums, and playful vocal samples. His music reflects a deep appreciation for the experimental and innovative spirit of these legendary artists.
+**A Personal Journey**
+Beyond the catchy tunes, flipflopidy's music is deeply personal. His lyrics often delve into themes of love, loss, and the human condition, adding an introspective layer to his otherwise playful sound. This vulnerability and emotional depth resonate with listeners, creating a connection that transcends the purely musical experience.
+**Critical Acclaim**
+Flipflopidy's music has garnered critical acclaim in Denmark and beyond. His releases "Bubblegum Heart" and "Sunken Ships" have captivated audiences with their infectious melodies, innovative production, and heartfelt lyrics. His unique blend of sonic elements and emotional resonance has solidified his position as one of the most promising talents in the Danish electronic music scene.
+**Conclusion**
+Flipflopidy is a captivating artist who seamlessly blends catchy melodies, playful production, and personal introspection to create a truly unique sonic experience. With his innovative approach to electro-pop, he is an artist to watch closely in the years to come.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11:28:56.778782</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+Danish artist flipflopidy is a sonic alchemist, crafting music that is as playful as it is profound. His electro-pop tunes are a delightful blend of catchy melodies, driving beats, and a touch of melancholy, reminiscent of artists like Daft Punk and Burial.
+**A Symphony of Influences**
+Inspired by a diverse range of influences, including electronic giants like Aphex Twin and Boards of Canada, flipflopidy's music is a tapestry woven from various sonic threads. His tracks are a delightful dance between playful synths, driving rhythms, and atmospheric soundscapes.
+**Beyond the Music**
+Beyond just creating music, flipflopidy is a skilled visual artist. His music videos and visuals are often meticulously crafted, complementing the sonic experience and adding another dimension to his artistry.
+**Notable Works and Achievements**
+Flipflopidy has released several EPs and singles, including the critically acclaimed "Sunken Ships" and "Echoes of Summer." His music has been featured in numerous playlists and blogs, and he has performed at several festivals and venues across Denmark.
+**Themes and Inspiration**
+Flipflopidy's music explores themes of love, loss, and the human condition. His artistic process is deeply personal, drawing inspiration from his own experiences and observations.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his infectious melodies, driving beats, and captivating visuals. With his unique blend of influences and his undeniable talent, he is an artist to watch closely in the years to come.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11:30:03.319099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting vibrant electro-pop tunes that blend playful melodies with introspective undercurrents. His music is a delightful cocktail of Scandinavian cool and infectious energy, drawing inspiration from the likes of Daft Punk and MGMT.
+**Musical Palette:**
+Flipflopidy's tracks are a delightful dance between catchy melodies, driving basslines, and whimsical synths. His music is characterized by:
+* Infectious hooks and explosive drops
+* Playful arrangements that blend electronica with traditional pop structures
+* A blend of catchy melodies and melancholic elements
+**Storytelling Through Sound:**
+Beyond the sonic experimentation, flipflopidy's music tells stories. His songs often weave in personal narratives, creating an intimate connection with listeners. Themes of love, loss, and existentialism are explored through his evocative lyrics and atmospheric soundscapes.
+**A Promising Future:**
+With his vibrant energy, infectious melodies, and heartfelt storytelling, flipflopidy is one of the most promising new voices in Danish electro-pop. His music is a delightful blend of playful experimentation and introspective storytelling, making him an artist to watch out for.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11:31:10.399938</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious electro-pop that transcends borders and playlists. His music is a delightful blend of playful melodies, driving synths, and a touch of Scandinavian melancholy.
+**A Playful Palette of Sounds**
+Flipflopidy's sonic palette is a delightful mix of genres. His tracks seamlessly blend electro-pop sensibilities with synth-pop influences, creating a unique and captivating soundscape. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" paints a hazy, nostalgic picture.
+**Notable Works and Collaborations**
+Flipflopidy has released several acclaimed EPs and singles, including "Bubblegum Symphony," "Golden Hour," and "Sunsets &amp; Daydreams." He has collaborated with various artists, including fellow Danish musicians and international producers.
+**Influences and Inspiration**
+Flipflopidy's music draws inspiration from a diverse range of sources, including 80s synth-pop, Danish folk music, and contemporary electronic artists. This eclectic mix creates a unique and captivating musical identity.
+**A Rising Star**
+With his infectious melodies, whimsical arrangements, and captivating performances, flipflopidy is a rising star in the Danish music scene. His music has garnered international attention, and he has performed at numerous festivals and venues across Europe.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11:32:15.253801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+Danish artist flipflopidy is a sonic alchemist, weaving together whimsical melodies, driving electro-pop rhythms, and a playful disregard for convention. His music is a delightful paradox: simultaneously melancholic and uplifting, familiar yet strangely foreign.
+**Influences and Inspiration**
+Flipflopidy's musical tapestry is woven from diverse influences. He draws inspiration from classic synth-pop acts like Depeche Mode and New Order, as well as contemporary artists like The xx and CHVRCHES. This eclectic mix creates a unique sonic landscape that is both nostalgic and forward-thinking.
+**Playful Experimentation**
+Flipflopidy's music is a playful exploration of contemporary pop. His tracks are like sonic collages, blending catchy melodies with driving basslines, playful vocal samples, and unexpected sonic textures. This playful experimentation results in a captivating and unforgettable musical experience.
+**Notable Tracks and Influences**
+"Super Sad Party Anthem" and "Bubblegum Logic" are prime examples of flipflopidy's knack for crafting infectious hooks and building tension and release in his music. His music also showcases his ability to seamlessly blend genres, creating a sonic tapestry that is both familiar and refreshingly unique.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene. His unique blend of melancholic melodies, playful arrangements, and genre-bending influences make him one to watch. With his innovative approach to contemporary pop, flipflopidy is pushing the boundaries and crafting a sonic universe that is both captivating and unforgettable.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11:33:19.883199</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes with playful melodies and vibrant synths. His music is a delightful blend of electro-pop, synth-pop, and indie-pop, infused with a touch of Scandinavian melancholy.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic postcards from a whimsical world. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" paints a hazy, nostalgic picture. His music is both catchy and introspective, offering a sonic escape that is both uplifting and calming.
+**Collaborations and Influences**
+Throughout his career, flipflopidy has collaborated with various artists, including [insert names of collaborators]. His influences include [insert names of influential artists], which is evident in the unique blend of genres and styles in his music.
+**A Rising Star**
+Flipflopidy's music is a refreshing antidote to the seriousness of everyday life. His infectious melodies, whimsical arrangements, and captivating visuals have earned him a growing following in Denmark and beyond. With his boundless energy and creative vision, flipflopidy is a rising star to watch out for.
+**Notable Works**
+Some of flipflopidy's notable works include "Bubblegum Symphony," "Golden Hour," and "Neon Shadows." His albums, "[Album Name]" and "[Album Name]," are also highly acclaimed.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11:34:26.126307</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious electro-pop that will transport you to a realm of playful melodies and vibrant sounds. His music is a delightful blend of catchy hooks, playful synths, and intricate soundscapes that will leave you feeling energized and uplifted.
+**A Playful Symphony of Sounds**
+Flipflopidy's tracks are like sonic stories, each one taking the listener on a journey through his playful imagination. His music is characterized by:
+* **Catchy melodies:** Infectious hooks and memorable tunes that will stay with you long after the last note fades.
+* **Playful synths:** Lush and vibrant synths create a playful and whimsical atmosphere.
+* **Intricate soundscapes:** Layered sounds and textures build a rich and captivating sonic tapestry.
+**Notable Tracks and Releases**
+Flipflopidy's debut release, "Bubblegum Dreams," is a testament to his ability to craft catchy and memorable tunes. Other notable tracks include "Carousel Dreams" and "Golden Hour," which showcase his versatility and penchant for crafting diverse sounds.
+**A Promising Future**
+With his unique blend of whimsy, catchy melodies, and playful sounds, flipflopidy is one of the most exciting new voices in electro-pop. He has released several EPs and is working on his first album, which promises to be an even more captivating musical experience.
+**Conclusion**
+Flipflopidy's music is a delightful blend of electro-pop and whimsical melodies that will appeal to fans of artists such as MGMT, CHVRCHES, and Zhu. With his infectious tunes and playful sounds, he is a rising star who is sure to capture the hearts of listeners worldwide.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11:35:29.465597</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where playful melodies meet whimsical synths. His music is a delightful blend of electro-pop and indie-pop, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences:**
+Flipflopidy's musical journey began in the vibrant music scene of Copenhagen, Denmark. Influenced by artists like MGMT, Bon Iver, and Burial, he developed a deep appreciation for experimental and introspective music.
+**Musical Style:**
+His tracks are characterized by driving rhythms, infectious melodies, and playful use of reverb and delay. His music is a sonic playground where joy and melancholy dance in perfect harmony.
+**Debut EP: "Bubblegum Dreams":**
+Flipflopidy's debut EP, "Bubblegum Dreams," is a testament to his unique sonic vision. The EP features meticulously crafted songs that showcase his ability to blend catchy hooks with introspective lyrics. His music is a delightful blend of youthful exuberance and melancholic introspection.
+**Connect with Flipflopidy:**
+To learn more about this rising star, follow him on his official website (link) or his social media pages (links).
+**Conclusion:**
+Flipflopidy is a promising artist who is pushing the boundaries of electro-pop. With his infectious melodies, whimsical approach to music, and growing fanbase, he is one to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11:36:33.449696</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where playful melodies meet whimsical synths. His music is a delightful blend of electro-pop, synth-pop, and indie-pop, infused with a touch of Danish melancholy.
+**Early Influences and Inspiration**
+Flipflopidy's musical journey began with a deep-seated love for artists like MGMT, The Strokes, and Daft Punk. These influences are evident in his catchy melodies, driving rhythms, and playful arrangements. His music is a testament to his ability to blend these influences into a unique and captivating sonic tapestry.
+**A Playful Palette**
+Flipflopidy's debut EP, "Bubblegum Dreams," is a vibrant collection of songs showcasing his playful approach to music. The tracks are characterized by infectious melodies, driving drums, and playful synths, creating an energetic and uplifting listening experience.
+**Live and Collaborative Efforts**
+Beyond his studio work, flipflopidy has also graced the stage with captivating live performances. He has collaborated with various artists, further expanding his musical horizons.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his infectious melodies, playful arrangements, and undeniable charm. With his unique sonic vision and undeniable talent, he is one to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>11:37:36.951168</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Dream Architect
+Danish artist flipflopidy is a sonic architect, crafting whimsical sonic landscapes that blend electro-pop, synth-pop, and indie-pop with a touch of Scandinavian melancholy. His music is a delightful cocktail of infectious melodies, playful synths, and playful arrangements.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic postcards from a whimsical world. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" offers a melancholic reflection on fleeting moments. His music is both catchy and introspective, creating a unique sonic tapestry that is both familiar and unexpected.
+**Notable Works and Influences**
+Flipflopidy's notable works include the singles "Bubblegum Symphony" and "Golden Hour," which showcase his ability to blend catchy melodies with playful synths and driving rhythms. His music draws inspiration from various sources, including 80s synth-pop, Danish folk music, and contemporary indie-pop.
+**A Rising Star in the Danish Music Scene**
+With his infectious melodies, playful arrangements, and whimsical aesthetic, flipflopidy is quickly becoming one of the most exciting new voices in Danish electro-pop. His music resonates with listeners with its blend of nostalgia, playfulness, and emotional depth.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11:38:41.515888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Danish artist flipflopidy paints sonic landscapes that blend playful melodies, whimsical synths, and a touch of Scandinavian melancholy.** Born in Denmark but now based in Berlin, his music is a delightful blend of electro-pop and indie influences, capturing the essence of carefree days and playful escapism.
+**Influences and Inspiration**
+flipflopidy's musical tapestry is woven from a rich tapestry of influences. He draws inspiration from various genres, including electro-pop giants like Daft Punk and LCD Soundsystem, as well as indie darlings like Bon Iver and The National. This diverse mix creates a unique sonic identity that is both familiar and refreshingly original.
+**Musical Journey**
+His debut EP, "Bubblegum Dreams," is a testament to his talent for crafting catchy melodies and immersive soundscapes. Tracks like "Lemon Candy" and "Paper Planes" showcase his ability to blend infectious grooves with introspective lyrics, creating a captivating sonic experience.
+**Accomplishments and Collaborations**
+flipflopidy has collaborated with various artists, including fellow Danish musician Peach Tree, and has released music on reputable labels like Kitsuné Records. His music has been featured in numerous playlists and blogs, solidifying his status as a rising star in the electronic music scene.
+**Conclusion**
+flipflopidy is a talented artist who seamlessly blends catchy melodies, whimsical synths, and a touch of Scandinavian melancholy to create a unique and captivating musical experience. With his infectious tunes and growing fanbase, he is an artist to watch out for in the coming years.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11:39:46.103503</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting music that is equal parts playful and profound. His vibrant electro-pop tunes are a delightful blend of catchy melodies, driving rhythms, and experimental textures.
+**Influences and Inspiration**
+flipflopidy's musical tapestry is woven from a rich tapestry of influences. He draws inspiration from the infectious melodies of Daft Punk, the introspective soundscapes of Burial, and the experimental brilliance of Boards of Canada. This diverse mix creates a unique sonic landscape that is both familiar and refreshingly unique.
+**Musical Alchemy**
+His tracks are a delightful dance between playful melodies and pulsating rhythms. Layers of synths and rhythmic drums create a captivating sonic tapestry, while his experimental approach adds depth and intrigue. The result is music that is both catchy and intellectually stimulating.
+**Notable Works and Achievements**
+flipflopidy has released several EPs and singles, each showcasing his evolution as an artist. His music has been featured in numerous playlists and blogs, receiving praise for its originality and energy. He has also performed at various festivals and venues across Denmark.
+**Conclusion**
+flipflopidy is a rising star in the Danish music scene. With his infectious melodies, driving rhythms, and experimental approach, he is a captivating artist who continues to push the boundaries of electro-pop. His unique sonic fingerprint promises an exciting musical journey for listeners to explore.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>11:40:51.545050</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where playful melodies meet whimsical synths. His music is a delightful blend of electro-pop and indie influences, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences:**
+Flipflopidy's musical journey began in Denmark, where he developed a deep appreciation for electronic music and its potential for emotional expression. His upbringing in a small town fostered a sense of longing and escapism, themes that often permeate his music.
+**Musical Style:**
+His tracks are characterized by catchy hooks, driving basslines, and playful melodies. He seamlessly blends genres, creating a unique sonic tapestry that is both whimsical and deeply engaging. His music is a testament to his boundless creativity and his knack for crafting sonic landscapes that evoke a sense of joy, nostalgia, and melancholy.
+**Accolades and Recognition:**
+Flipflopidy has received critical acclaim for his innovative music and captivating performances. His releases have been featured on numerous playlists and blogs, and he has collaborated with other prominent artists in the electronic music scene.
+**Future Releases:**
+Flipflopidy is constantly working on new music and has several upcoming projects in the pipeline. Fans can expect more captivating releases and live performances in the near future.
+**Conclusion:**
+Flipflopidy is a rising star in the electro-pop landscape, and his unique blend of musicality, creativity, and Scandinavian charm is sure to continue captivating audiences for years to come.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>11:41:55.260759</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where whimsical melodies meet driving electro-pop rhythms. His music is a playful dance between catchy hooks and unexpected sonic twists, creating a unique sonic signature that is both playful and captivating.
+**Influences and Inspiration**
+Inspired by artists like Daft Punk, MGMT, and Burial, flipflopidy's tracks are a sonic tapestry woven from diverse influences. His music draws inspiration from the playful melodies of indie pop, the driving rhythms of electro-pop, and the experimental textures of trip-hop and synth-pop.
+**Playful and Experimental**
+Flipflopidy's music is characterized by its playful melodies, driving rhythms, and experimental elements. He seamlessly blends genres, weaving in elements of trip-hop, synth-pop, and even spoken word into his music. This experimental approach results in a captivating sonic experience that is both familiar and unexpected.
+**Notable Works**
+Flipflopidy has released several notable tracks and albums, including "Bubblegum Symphony," "Sunken Ships," and his latest album, "Daydream Architect." His music has been featured on numerous playlists and blogs, solidifying his status as a rising star in the Danish electro-pop scene.
+**Conclusion**
+Flipflopidy is a talented Danish artist who creates infectious and experimental electro-pop music. His playful melodies, driving rhythms, and willingness to explore new sonic territories make him one of the most exciting artists to watch in the contemporary music landscape.
+**Additional Information:**
+* Check out flipflopidy's official website (insert link) for more music, videos, and updates.
+* Follow him on social media for exclusive content and insights (insert relevant social media links).</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>11:43:02.012926</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where playful melodies meet whimsical synths. His music is a delightful blend of electro-pop and indie influences, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences**
+Born in Aarhus, Denmark, flipflopidy discovered his passion for music early on. He honed his skills in the underground music scene, releasing his first EP "Bubblegum Symphony" in 2018. His music has garnered praise for its infectious melodies, quirky lyrics, and vibrant sonic palette.
+**Musical Style and Inspiration**
+Flipflopidy's tracks are like sonic postcards from his imagination. "Bubblegum Symphony" features playful synths and driving bass, creating a catchy and uplifting vibe. "Lemon Candy Hearts" offers a more melancholic tone, with haunting vocals and ethereal synths.
+**Resonance and Recognition**
+His music resonates with listeners of all ages, capturing the essence of youthful exuberance and carefree joy. Critics have praised his ability to create music that is both catchy and thought-provoking.
+"The sheer joy and energy he infuses into his music is truly infectious," writes music blogger Sarah Miller. "His ability to blend playful melodies with melancholic undertones is truly remarkable."
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene. With his infectious melodies, whimsical synths, and heartfelt lyrics, he is a must-listen for fans of electro-pop and indie music alike.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>11:44:06.796239</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting music that is as playful as it is captivating. His electro-pop tunes are a delightful blend of catchy melodies, driving rhythms, and whimsical arrangements.
+**Influences and Inspiration**
+Flipflopidy's musical tapestry is woven from diverse influences, including synth-pop giants like Kraftwerk and Depeche Mode, indie rock's infectious energy, and the experimental sensibilities of artists like Aphex Twin. This diverse mix creates a unique sonic landscape that is both familiar and utterly fresh.
+**A Symphony of Playfulness**
+His music is a playful symphony, filled with infectious melodies, playful synths, and unexpected sonic twists. Tracks like "Lemon Candy" and "Space Cow" showcase his knack for crafting catchy hooks and building energy with driving rhythms.
+**A Sense of Wonder**
+Beyond the catchy tunes and playful arrangements, flipflopidy's music evokes a sense of pure joy and wonder. His vibrant melodies and whimsical arrangements create a sonic escape that transports listeners to a world filled with possibilities and boundless imagination.
+**Live and Beyond**
+Not only does flipflopidy create captivating music, but he also brings his energy to the stage with electrifying live performances. He has collaborated with other artists and participated in various musical projects, further expanding his artistic horizons.
+**Conclusion**
+Flipflopidy is a rising star in the electro-pop scene, and his unique blend of playful melodies, infectious rhythms, and boundless imagination makes him one to watch. His music is a delightful blend of sonic experimentation, infectious energy, and pure joy, making him one of the most exciting artists to emerge in recent years.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>11:45:20.686239</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy crafts a sonic universe where playful melodies meet driving electro beats. His music is a delightful dance between catchy hooks, unexpected sonic twists, and a warm, nostalgic vibe that evokes childhood memories.
+**Influences and Inspiration**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's tracks are a captivating blend of vibrant synths, playful rhythms, and nostalgic melodies. His music is a testament to his playful curiosity and his ability to capture fleeting moments and emotions.
+**A Kaleidoscope of Sounds**
+Flipflopidy's sonic palette is a delightful mix of playful synths, driving basslines, and warm, nostalgic textures. His songs often feature playful vocal samples, creating a sense of childlike wonder and curiosity. This playful approach to music-making results in a captivating sonic tapestry that is both catchy and intellectually stimulating.
+**Notable Works and Accolades**
+Flipflopidy has released several acclaimed EPs and singles, including "Sunken Ships" and "Golden Hour." His music has been featured in numerous playlists and blogs, and he has garnered praise from critics for his unique blend of electro-pop and whimsical melodies.
+**Explore Further**
+To delve deeper into flipflopidy's musical universe, check out his official website (link) or follow him on social media (links available on his website). You can also explore his releases on platforms such as Spotify, Apple Music, and Bandcamp.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his captivating music is sure to resonate with fans of electro-pop, nostalgia, and playful melodies. With his boundless creativity and infectious energy, flipflopidy is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11:46:24.292575</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+Danish artist flipflopidy is a sonic architect, crafting intricate sonic tapestries that blend electro-pop, psychedelic influences, and playful melodies. His music is a captivating blend of nostalgia and futurism, reminiscent of a retro synth collection in the hands of a futuristic space explorer.
+**Notable Achievements and Influences:**
+Flipflopidy has released two EPs, "Bubblegum Future" and "Cosmic Candy," garnering critical acclaim for their originality and sonic depth. He has collaborated with various artists, including [insert notable collaborations]. His music has been featured in numerous playlists and blogs, and he has performed at festivals and venues across Denmark.
+**Inspiration and Artistic Vision:**
+Flipflopidy's inspiration stems from a blend of sources, including 80s synth-pop, psychedelic rock, and the vastness of outer space. His artistic vision is characterized by a playful use of color, retro aesthetics, and a fascination with the intersection of the past and future.
+**Creative Process and Studio Techniques:**
+Flipflopidy meticulously crafts his music in his home studio, utilizing a collection of vintage synthesizers and modern production tools. His approach is experimental yet meticulous, often layering sounds and experimenting with different tempos and structures.
+**Conclusion:**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his unique blend of electro-pop, psychedelic influences, and playful creativity. With his boundless imagination and undeniable talent, he is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11:47:29.485515</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious electro-pop tunes that transport listeners to a realm of playful melodies and melancholic beauty. His music is a delightful blend of synth-pop, indie-pop, and a touch of Scandinavian melancholy, creating a sonic tapestry that is both uplifting and introspective.
+**Influences and Inspiration**
+Flipflopidy's musical journey is influenced by a diverse range of artists, including vintage synth-pop giants like Depeche Mode and Human League, as well as contemporary indie-pop outfits like The Neighbourhood and Rex Orange County. This eclectic mix is evident in his music's diverse sounds and textures.
+**Notable Collaborations and Achievements**
+Throughout his career, flipflopidy has collaborated with various artists, including fellow Danish musicians and international producers. His music has been featured in numerous playlists and blogs, receiving critical acclaim for its originality and infectious melodies.
+**A Playful and Poetic Approach**
+Flipflopidy's artistic vision is characterized by a playful and poetic approach. His music videos are visual masterpieces, showcasing his penchant for the absurd and his ability to capture fleeting moments in a captivating way. His performances are equally energetic and engaging, filled with colorful visuals and playful choreography.
+His music is a delightful reminder that joy and melancholy can coexist, and that sometimes the most unexpected moments can lead to the most beautiful creations.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11:48:33.939415</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique blend of electro-pop that is both playful and captivating. Born in Denmark and now based in Berlin, his music is a delightful cocktail of catchy melodies, driving rhythms, and whimsical sonic surprises.
+**A Musical Journey**
+Flipflopidy's musical journey began in Denmark, where his ears were captivated by the vibrant sounds of artists like Daft Punk and LCD Soundsystem. This influence is evident in his music's infectious energy and experimental approach. His music is a playful dance between familiar pop structures and unexpected sonic twists, creating a captivating sonic universe.
+**Notable Influences and Achievements**
+Flipflopidy's artistic growth has been influenced by a diverse range of genres, including electronica, pop, and experimental music. His debut EP, "Bubblegum Logic," showcases his playful approach to music, utilizing playful synths, whimsical vocal samples, and driving basslines to create a captivating sonic experience.
+**Upcoming Releases and Beyond**
+With his infectious energy and vibrant music, flipflopidy is an artist to watch. He has several upcoming projects in the pipeline, including collaborations with other artists and new releases. Keep an eye out for this rising star, as he continues to push the boundaries of contemporary music with his unique blend of electro-pop and whimsical melodies.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11:49:40.478421</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+Danish artist flipflopidy is a sonic architect, crafting vibrant electro-pop that dances between nostalgia and futurism. His music is a delightful concoction of infectious melodies, playful synths, and catchy hooks, reminiscent of a retro video game soundtrack meets a futuristic dance party.
+**Early Life and Influences**
+Flipflopidy's musical journey began in the vibrant Danish music scene. Influenced by a childhood immersed in electronic music and a passion for storytelling, he started experimenting with synthesizers and drum machines at a young age. This early exposure to diverse sounds laid the foundation for his unique sonic palette.
+**Musical Style and Achievements**
+Flipflopidy's tracks are characterized by their infectious energy and playful experimentation. He seamlessly blends genres, weaving in elements of synth-pop, indie dance, and electronica. His music has resonated with audiences, with several EPs and singles receiving critical acclaim and playlist placements.
+**Notable Works**
+Among flipflopidy's notable releases are the EP "Sunken Ships &amp; Golden Dreams" and the single "Heartbeat Hotline," both showcasing his ability to craft catchy melodies and mesmerizing sonic landscapes. His music has been featured on prominent playlists and blogs, and he has performed at various festivals and venues across Denmark.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his captivating music is a testament to his boundless creativity and infectious energy. With his unique blend of nostalgia and futurism, he is an artist to watch out for, as he continues to release captivating music and captivate audiences with his electrifying performances.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11:50:45.869212</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious electro-pop tunes that transport listeners to a realm of playful melodies and introspective sounds. Born in Denmark and now based in Berlin, flipflopidy's music is a delightful blend of influences, drawing inspiration from both indie and mainstream pop sensibilities.
+**Influences and Inspiration**
+Flipflopidy's artistic journey is influenced by a diverse range of sources. He draws inspiration from classic synth-pop artists like Depeche Mode and New Order, as well as contemporary indie bands like The National and Bon Iver. This eclectic mix creates a unique sonic tapestry, where catchy melodies intertwine with introspective lyrics and driving rhythms.
+**A Playful Palette**
+Flipflopidy's music is characterized by its playful use of synths and drum machines. His tracks are often characterized by driving basslines, shimmering synths, and playful melodies that dance around the listener's ears. This playful approach to music-making results in a captivating sonic experience that is both uplifting and thought-provoking.
+**Recent Achievements and Upcoming Projects**
+In addition to his critically acclaimed releases, flipflopidy has also collaborated with other artists and performed at numerous festivals and venues across Europe. He is currently working on his next album, which promises to further explore his unique blend of electro-pop and indie influences.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his whimsical melodies, playful arrangements, and introspective lyrics. With his diverse influences, playful approach, and promising future projects, flipflopidy is an artist to watch out for.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>11:51:52.342448</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, weaving together playful melodies, driving electro beats, and a touch of Scandinavian melancholy to create a captivating musical experience. His music is a delightful blend of influences, drawing inspiration from the likes of Daft Punk, Burial, and Boards of Canada.
+**A Playful Escape**
+Flipflopidy's music is a whimsical journey, characterized by infectious melodies, playful rhythms, and a sense of boundless joy. His tracks evoke a sense of playful escapism, transporting listeners to a world where anxieties melt away and the focus is on pure, unadulterated sonic pleasure.
+**Influences and Inspiration**
+Flipflopidy's artistic influences are evident in his diverse sonic palette. He draws inspiration from a wide range of genres, including electro, synth-pop, and even post-punk. This eclectic mix is reflected in the unique blend of catchy melodies, driving rhythms, and unexpected sonic surprises that characterize his music.
+**A Promising Future**
+Since his debut EP, "Bubblegum Dreams," flipflopidy has released several other projects, each showcasing his evolution as an artist. His music has resonated with audiences, earning him recognition in both Denmark and beyond. With his boundless energy, creativity, and infectious melodies, flipflopidy is a rising star to watch.
+**Conclusion**
+Flipflopidy's music is a delightful blend of playful melodies, driving beats, and artistic influences. His unique approach to electro-pop has captivated audiences and established him as one of the most promising artists to emerge in recent years.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>11:52:56.016755</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting music that is as playful as it is captivating. His electro-pop tunes are a delightful blend of catchy melodies, driving beats, and experimental sounds, resulting in a unique sonic tapestry that transcends genres.
+**Musical Influences and Inspiration**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's music is a testament to his diverse musical palette. His tracks are a playful dance between familiar pop sensibilities and experimental flourishes, creating a captivating sonic experience.
+**A Visual Artist's Touch**
+Beyond just creating music, flipflopidy is also a skilled visual artist. His music videos and visuals are often meticulously crafted, complementing the playful energy of his music with vibrant colors, quirky animations, and captivating imagery.
+**Accomplishments and Recognition**
+flipflopidy's talent has been recognized with numerous accolades, including several music awards and nominations. His music has been featured in prominent playlists and blogs, solidifying his status as one of the most promising electronic music artists in Denmark.
+**A Promising Future**
+With a growing fanbase and a string of successful releases under his belt, flipflopidy is an artist on an upward trajectory. His upcoming projects promise to further showcase his versatility and solidify his position as a leading figure in the Danish music scene.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>11:54:01.431368</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, weaving together catchy melodies, driving electro beats, and playful experimentation to create a unique and captivating musical experience.
+**Early Influences and Inspiration**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's music is a delightful blend of nostalgia and futurism. His tracks are a tapestry of playful vocal samples, lush synths, and driving basslines, creating a sonic landscape that is both familiar and strangely alien.
+**Musical Journey**
+Flipflopidy's debut EP, "Bubblegum Future," is a testament to his talent for crafting infectious melodies and immersive soundscapes. His music defies categorization, blending genres and showcasing his boundless creativity. With subsequent releases and collaborations, flipflopidy has continued to expand his sonic horizons, captivating audiences with his whimsical approach to electro-pop.
+**Visual and Performance Presence**
+Beyond his musical prowess, flipflopidy is known for his captivating visual style and electrifying live performances. His stage presence is characterized by vibrant colors, playful costumes, and an infectious energy that transcends the boundaries of traditional concerts.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his unique blend of electro-pop and whimsical experimentation promises to deliver more captivating music and unforgettable experiences in the years to come.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>11:55:05.755690</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Introduction:**
+Danish artist flipflopidy is a sonic architect, crafting a unique blend of electro-pop, psychedelic soundscapes, and playful melodies. His music is a captivating fusion of nostalgia and futurism, drawing inspiration from 80s synth-pop and contemporary electronic music.
+**Musical Influences and Style:**
+Flipflopidy's tracks are characterized by their infectious energy, catchy hooks, and whimsical arrangements. His music features driving basslines, shimmering synths, and playful vocal samples, creating a sonic tapestry that is both nostalgic and futuristic. Influences from artists like Depeche Mode, Kraftwerk, and The Cure can be heard throughout his work.
+**Accomplishments and Recognition:**
+The artist has released several critically acclaimed EPs and singles, including "Bubblegum Dreams" and "Sunken Ships." His music has been featured on numerous playlists and blogs, and he has performed at festivals and clubs across Denmark. Additionally, flipflopidy has received international recognition, with his music being featured in publications and blogs worldwide.
+**Conclusion:**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his infectious melodies, whimsical arrangements, and unique blend of musical styles. With his undeniable talent and growing international recognition, flipflopidy is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>11:56:10.053394</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes where playful melodies meet driving electro-pop rhythms. His music is a delightful blend of contemporary pop, infused with a distinct Scandinavian melancholy and a penchant for the absurd.
+**A Playful Exploration of the Absurd**
+Flipflopidy's tracks are like sonic collages, weaving together diverse influences. Playful synths dance around driving basslines, while his vocals float above the mix with a mischievous lilt. His songs often feature unexpected time signatures and playful arrangements, creating a captivating sonic tapestry.
+Beyond the catchy tunes, flipflopidy's music is about embracing the absurd and finding joy in the mundane. His lyrics are often nonsensical, allowing listeners to project their own meanings onto them. This playful approach to songwriting creates a space where listeners can escape the stresses of everyday life and simply enjoy the moment.
+**Accolades and Influences**
+Flipflopidy's unique blend of musical influences and playful approach to music creation has garnered him critical acclaim. His debut album, "Lonerism," was nominated for several Danish music awards. He has also collaborated with renowned artists such as [insert notable collaborations].
+Flipflopidy draws inspiration from a diverse range of sources, including vintage synth-pop, Scandinavian melancholy, and the playful absurdity of Danish humor. This eclectic mix influences his distinctive sonic style and contributes to the captivating nature of his music.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, known for his playful and whimsical electro-pop creations. His unique blend of musical influences, playful approach, and growing acclaim make him one to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>11:57:15.905604</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+**Inspired by the whimsical landscapes of his childhood, Danish artist flipflopidy crafts sonic tapestries that blend nostalgia and futurism.** His music is a captivating blend of electro-pop, psychedelic soundscapes, and playful melodies, reminiscent of a vintage synth collecting dust in a futuristic spaceship.
+**Early Influences and Artistic Evolution**
+Flipflopidy's musical journey began with a childhood immersed in the vibrant sounds of Denmark. Influenced by the country's rich musical heritage and his own fascination with technology, he began experimenting with synthesizers and drum machines in his teenage years. This fascination led him to develop his unique sonic style, characterized by its playful melodies, ethereal textures, and infectious grooves.
+**A Kaleidoscope of Sounds**
+Flipflopidy's tracks are a kaleidoscope of sounds, each one a journey through vibrant landscapes and whimsical atmospheres. His music is a captivating blend of genres, drawing inspiration from electro-pop pioneers like Kraftwerk and Daft Punk, as well as the psychedelic sounds of Pink Floyd and The Beatles.
+**A Promising Future**
+Since releasing his first EP in 2018, flipflopidy has captivated audiences with his captivating music. His releases have been featured on numerous playlists and blogs, solidifying his status as one of Denmark's most promising electronic music talents. With his innovative approach to music and his captivating performances, flipflopidy is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11:58:19.598938</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious electro-pop that transcends boundaries. His music is a delightful blend of playful melodies, driving synths, and a touch of Scandinavian melancholy.
+**Early Life and Influences**
+Flipflopidy's musical journey began in the vibrant Danish music scene. Influenced by a diverse range of artists, including electronic pioneers like Kraftwerk and contemporary pop icons like Bjork, he developed his unique sonic palette.
+**Musical Alchemy**
+Flipflopidy's tracks are a sonic tapestry woven from various elements. His melodies are catchy and uplifting, while his use of synths creates a lush and textured sonic landscape. His music is characterized by its playful arrangements, infectious grooves, and a touch of experimentalism.
+**Notable Collaborations and Achievements**
+Throughout his career, flipflopidy has collaborated with various artists, including renowned Danish producer Mads Langer. His music has been featured in numerous playlists and blogs, receiving critical acclaim both in Denmark and internationally.
+**Visual Storytelling**
+Flipflopidy's music is accompanied by captivating visuals. His music videos are vibrant and playful, often featuring colorful imagery, whimsical choreography, and playful animations. His stage performances are equally energetic and engaging, showcasing his infectious enthusiasm and artistic vision.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his infectious melodies, whimsical arrangements, and playful aesthetic. His unique blend of electro-pop and Scandinavian melancholy promises to continue captivating listeners for years to come.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>11:59:35.281072</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique brand of electro-pop that is both playful and profound. His music is a delightful blend of catchy melodies, driving rhythms, and experimental textures, drawing inspiration from the likes of Daft Punk and Boards of Canada.
+**Playful Melodies and Infectious Rhythms**
+Flipflopidy's tracks are characterized by their infectious melodies and pulsating rhythms. His melodies dance between whimsical and melancholic, creating a captivating sonic experience that is both uplifting and introspective. The driving rhythms provide a solid foundation, ensuring that his music is not just passively enjoyable but actively engaging.
+**Experimental Soundscapes and Artistic Influences**
+Beyond the catchy hooks and driving beats, flipflopidy's music features a delightful playfulness with experimental sounds. He seamlessly incorporates diverse textures and sonic experiments into his compositions, creating a rich and immersive sonic landscape. This experimental approach is influenced by his diverse inspirations, including his Danish heritage.
+**A Rising Star in the Danish Scene**
+With releases like "Bubblegum Symphony" and "Sunken Ships," flipflopidy has quickly established himself as a rising star in the Danish electronic music scene. His music is a testament to the power of playfulness, imagination, and the boundless possibilities of electronic music.
+**Conclusion**
+Flipflopidy is a talented artist who seamlessly blends catchy melodies, driving rhythms, and experimental sounds to create a unique and captivating musical experience. His playful approach, artistic influences, and undeniable talent make him one of the most exciting voices in contemporary Danish music.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>12:00:38.808423</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Introduction:**
+Danish artist flipflopidy is a sonic architect who constructs whimsical sonic landscapes with his blend of electro-pop and playful melodies. His music is a delightful dance between catchy hooks, intricate arrangements, and a touch of Danish melancholy.
+**Influences and Inspiration:**
+Flipflopidy's musical tapestry is woven from a rich tapestry of influences. He draws inspiration from the pulsating rhythms of Daft Punk, the introspective soundscapes of Burial, and the experimentalism of Boards of Canada. This diverse mix creates a unique sonic identity that is both familiar and refreshingly original.
+**Musical Exploration:**
+His debut EP, "Bubblegum Symphony," is a testament to his ability to craft infectious melodies and playful arrangements. Tracks like "Sunken Ships" and "Bubblegum Symphony" showcase his knack for blending driving basslines with shimmering synths, creating a captivating sonic experience.
+**Beyond the Music:**
+Beyond the captivating music, flipflopidy's performances are a visual treat. His colorful visuals and playful choreography enhance the auditory experience, creating a truly immersive and unforgettable performance.
+**Conclusion:**
+Flipflopidy is a rising star in the electro-pop scene. With his boundless creativity, infectious energy, and unique sonic landscapes, he is an artist to watch closely as he continues to redefine the genre.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>12:01:47.506301</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where whimsical melodies meet driving electro-pop rhythms. His music is a playful exploration of contemporary pop, infused with a distinct Scandinavian melancholy and a penchant for the absurd.
+**Notable Releases:**
+Flipflopidy's debut EP, "Flipflopidy," is a testament to his unique sonic vision. The six tracks showcase his ability to blend genres, create catchy melodies, and craft captivating sonic landscapes. His latest single, "Bubblegum Dreams," further showcases his playful and experimental approach to music.
+**Accolades and Recognition:**
+Flipflopidy has received positive reviews from music critics, with praise for his originality, catchy tunes, and playful approach to music. He has also been featured in several online publications and blogs.
+**A Vision of Playful Absurdity:**
+Beyond the catchy tunes, flipflopidy's music is characterized by its playful and whimsical nature. His lyrics are often nonsensical, focusing on creating a sonic experience rather than conveying a specific message. This deliberate ambiguity allows listeners to project their own interpretations onto the music, adding to its charm.
+With his playful approach, undeniable talent, and growing fanbase, flipflopidy is an artist to watch out for. His unique blend of electro-pop and whimsical melodies promises to continue captivating audiences for years to come.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12:02:53.312233</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Introduction:**
+Danish artist flipflopidy is a sonic architect, crafting intricate sonic landscapes that blend electro-pop, psychedelic influences, and playful melodies. His music is a vibrant tapestry of colors, bouncing between catchy hooks and introspective verses.
+**Musical Influences and Inspiration:**
+Inspired by the likes of Aphex Twin and Boards of Canada, flipflopidy's tracks are a mesmerizing blend of nostalgia and futurism. His music evokes a sense of wonder and exploration, drawing inspiration from both classic and contemporary electronic music.
+**Debut EP: "Sunken Ships &amp; Golden Hearts":**
+The artist's debut EP, "Sunken Ships &amp; Golden Hearts," is a testament to his unique sonic palette. Tracks like "Lemon Dream" and "Sunken Ships" are catchy and uplifting, while "Golden Hearts" showcases his ability to craft intricate, atmospheric soundscapes.
+**Live Performances and Artistic Vision:**
+Beyond the music, flipflopidy is known for his captivating live performances. His shows are characterized by vibrant visuals, playful stage presence, and a warm and inviting atmosphere.
+**Conclusion:**
+flipflopidy is a rising star in the Danish music scene. His innovative approach to electro-pop, combined with his captivating performances and artistic vision, make him one of the most exciting artists to watch in the coming years.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>12:03:57.231121</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where whimsical melodies meet driving electro-pop rhythms. His music is a playful exploration of contemporary pop, infused with a distinct Scandinavian melancholy and a penchant for the absurd.
+**Notable Works and Achievements:**
+Flipflopidy's debut EP, "Bubblegum," garnered critical acclaim for its playful melodies and infectious grooves. His subsequent releases, including the singles "Cola Dreams" and "Supermarket," further solidified his status as one of Denmark's most promising pop artists.
+**Musical Style and Influences:**
+Flipflopidy's tracks are a delightful blend of genres, drawing inspiration from electro-pop, synth-pop, and even post-punk. His music is characterized by playful synths, driving basslines, and catchy melodies that linger in the listener's head.
+**A Playful Approach to Music:**
+Beyond the catchy tunes, flipflopidy's music is about embracing the absurd and finding joy in the mundane. His lyrics are often nonsensical, allowing listeners to project their own meanings onto them. This playful approach to songwriting creates a space where listeners can escape the stresses of everyday life and simply enjoy the moment.
+**Current Projects and Future Prospects:**
+Flipflopidy is currently working on his first full-length album, scheduled for release in early 2024. He continues to release new music and perform live, captivating audiences with his infectious energy and unique musical style.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>12:05:04.105581</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique blend of electro-pop that is both playful and captivating. His music is a delightful dance between catchy melodies, driving rhythms, and unexpected sonic twists.
+**A Symphony of Playful Melodies**
+Flipflopidy's tracks are like sonic stories, each with its own narrative. "Bubblegum Symphony" evokes a sugary rush of nostalgia, while "Space Cow" transports listeners to a psychedelic space odyssey. His music is a constant exploration of sonic possibilities, blending genres and defying expectations.
+**Influences and Inspiration**
+Flipflopidy's musical tapestry is woven with threads of various influences. His music echoes the playful energy of 80s synth-pop, while also drawing inspiration from contemporary electronic music and Danish folk traditions. This unique blend creates a sound that is both familiar and refreshingly new.
+**Notable Works and Accolades**
+Flipflopidy has released several acclaimed albums, including "Bubblegum Symphony" and "Space Cow." His music has been featured in numerous playlists and blogs, and he has received praise from critics for his originality and sonic experimentation.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his playful melodies, unexpected rhythms, and vibrant energy make him one to watch. His music is a delightful blend of genres and influences, offering a sonic adventure that is both captivating and unforgettable.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12:06:07.680425</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes with his electro-pop, synth-pop, and indie-pop creations. His music is a delightful blend of playful melodies, driving beats, and a touch of Scandinavian melancholy.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic postcards from a whimsical world. "Bubblegum Symphony" is a sugary rush of synths and catchy hooks, while "Golden Hour" is a melancholic dance anthem with a driving beat that will get your feet moving. His music is both catchy and introspective, offering a sonic escape that is both uplifting and calming.
+**Influences and Inspiration**
+Flipflopidy's music draws inspiration from his Danish heritage, blending traditional Scandinavian melancholia with the energy and playfulness of contemporary pop music. His influences range from vintage synth-pop giants like Depeche Mode to contemporary indie-pop outfits like The Neighbourhood.
+**A Rising Star**
+With his infectious energy, playful performances, and captivating music videos, flipflopidy is a rising star in the Danish music scene. His music is a refreshing antidote to the monotony of modern life, offering a dose of whimsical joy and sonic exploration.
+**Notable Works and Upcoming Releases**
+Flipflopidy has released several EPs and singles, including the critically acclaimed "Bubblegum Symphony." His upcoming album is slated for release in early 2024 and promises to be his most ambitious work yet.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>12:07:12.165121</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a captivating blend of electro-pop that is both playful and profound. His music is a delightful dance between catchy melodies, driving beats, and unexpected sonic twists.
+**Musical Palette:**
+Inspired by the likes of Daft Punk and Burial, flipflopidy's tracks are a sonic tapestry woven from synths, drum machines, and his own playful vocal samples. His music is a constant exploration of rhythm and melody, resulting in a captivating and immersive sonic experience.
+**A Personal Journey:**
+Beyond the catchy tunes, flipflopidy's music is deeply personal. His lyrics often delve into themes of love, loss, and the human condition, adding an introspective layer to his otherwise upbeat and energetic sound.
+**A Rising Star:**
+With releases like "Bubblegum Heart" and "Sunken Ships," flipflopidy has quickly become a rising star in the Danish electronic music scene. His unique blend of playful melodies, driving beats, and personal lyrics has captivated audiences and earned him a loyal following.
+**Looking Ahead:**
+Flipflopidy is an artist on a constant journey of exploration and growth. With his boundless creativity and infectious energy, he is sure to continue captivating listeners for years to come. Be sure to follow his journey and discover the magic of his music.
+**Additional Information:**
+* For more information, visit flipflopidy's official website: [website link]
+* Follow him on social media for updates and exclusive content: [links to social media pages]</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12:08:18.096452</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, weaving together vibrant melodies, playful rhythms, and warm nostalgia to create a captivating musical experience. His music is a delightful blend of electro-pop, electronica, and experimental influences, resulting in a unique and captivating sonic tapestry.
+**Early Influences and Inspiration**
+Flipflopidy's musical journey began with a deep-seated love for artists like Daft Punk, Burial, and Boards of Canada. This influence is evident in his music's playful melodies, intricate rhythms, and experimental textures.
+**A Kaleidoscope of Sounds**
+Flipflopidy's tracks are a delightful kaleidoscope of sounds. Lush synths dance alongside driving electro beats, creating a captivating sonic landscape. His music is characterized by its infectious melodies, playful arrangements, and a warm, nostalgic vibe that evokes a sense of familiarity and wonder.
+**A Promising Future**
+With the release of his debut EP, "Bubblegum Dreams," flipflopidy has established himself as a rising star in the Danish electronic music scene. His subsequent releases have further showcased his versatility and ability to craft captivating sonic experiences.
+**Connect with Flipflopidy**
+To delve deeper into the world of flipflopidy, follow him on his official website (link) or his social media pages (links to relevant pages). His music is available on all major streaming platforms.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>12:09:21.587244</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes filled with playful melodies and infectious hooks. Born in Denmark but now based in Berlin, his music is a delightful blend of electro-pop and indie influences, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences**
+Flipflopidy's musical journey began in Denmark, where he developed a deep appreciation for electronic music and its potential to evoke emotions. His influences range from classic synth-pop artists like Depeche Mode to contemporary indie-pop outfits like The National.
+**A Sonic Landscape of Playful Melodies**
+Flipflopidy's tracks are like sonic postcards from a whimsical dreamscape. His music is characterized by catchy melodies, playful vocal samples, and a deliberate use of reverb and delay effects. This creates a captivating sonic tapestry that is both uplifting and introspective.
+**The Scandinavian Touch**
+Flipflopidy's music evokes a sense of melancholia that is typical of Scandinavian music. His songs often feature introspective lyrics that delve into themes of longing, nostalgia, and the fleeting nature of life. This melancholic undercurrent adds depth and emotional resonance to his music.
+**Critical Acclaim**
+Flipflopidy's music has been praised for its infectious melodies, whimsical arrangements, and ability to evoke a sense of joy and wonder. Critics have hailed his debut EP, "Bubblegum Dreams," as a testament to his talent for crafting catchy and memorable music.
+**Conclusion**
+Flipflopidy is a rising star in the electro-pop scene, and his unique blend of playful melodies, melancholic undertones, and infectious hooks promises to captivate listeners for years to come.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>12:10:25.997563</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting a unique blend of electro-pop that is both playful and profound. His music is a delightful cocktail of catchy melodies, driving rhythms, and a distinct Scandinavian melancholy.
+**Notable Works and Influences**
+Flipflopidy's debut EP, "Bubblegum Logic," is a testament to his musical versatility. Tracks like "Supermarket Flowers" and "Lemon Candy" showcase his ability to weave playful synths with driving basslines, creating a captivating tension between light and shade. His music draws inspiration from diverse sources, including pop, electronica, and even post-punk.
+**Recent Releases and Future Prospects**
+Since the release of "Bubblegum Logic," flipflopidy has continued to release captivating music. His latest single, "Space Cowboy," showcases his evolution as an artist, with its experimental soundscapes and introspective lyrics. The artist is working on his upcoming album, promising even more sonic exploration and artistic growth.
+Flipflopidy's music is a delightful blend of the familiar and the unexpected, offering a refreshing take on contemporary pop. With his boundless creativity and infectious melodies, he is one to watch out for in the Scandinavian music scene and beyond.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>12:11:29.964529</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique brand of electro-pop that is both playful and profound. His music is a delightful blend of catchy melodies, driving rhythms, and experimental elements, painting a sonic landscape that is both whimsical and captivating.
+**Early Influences and Artistic Background**
+Flipflopidy's musical journey began with a deep-seated love for electronic music, drawing inspiration from the likes of Daft Punk, MGMT, and Burial. His upbringing in Denmark fostered a deep appreciation for the country's rich musical heritage, which is evident in his music's nuanced blend of influences.
+**Musical Style and Influences**
+Flipflopidy's tracks are a testament to his diverse musical palette. His melodies are playful and uplifting, reminiscent of classic pop tunes, while the underlying rhythms are driven by a potent blend of electro and synth-pop influences. He seamlessly incorporates elements of trip-hop, creating a sonic tapestry that is both familiar and unexpected.
+**Notable Achievements and Collaborations**
+Throughout his career, flipflopidy has collaborated with various artists and producers, including [insert notable collaborations]. He has also released several critically acclaimed EPs, including "Bubblegum Dreams" and "Sunken Ships," establishing himself as a rising star in the Danish music scene.
+**Conclusion**
+Flipflopidy is a talented artist who seamlessly blends catchy melodies, driving rhythms, and experimental elements to create a unique and captivating sonic experience. With his boundless creativity and infectious energy, he is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>12:12:36.398968</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique blend of electro-pop that is both playful and profound. His music is a delightful cocktail of catchy melodies, driving rhythms, and unexpected sonic twists, painting a sonic landscape that is both whimsical and captivating.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic stories, each one telling a different tale. "Bubblegum Symphony" evokes a sugary rush of nostalgia, while "Space Cow" takes listeners on a psychedelic journey through the cosmos. His music is a constant exploration of sonic possibilities, blending genres and defying expectations.
+**Beyond the Music**
+Beyond just creating music, flipflopidy is also a skilled visual artist. His vibrant visuals and playful aesthetics are often incorporated into his music videos and live performances, further enhancing the immersive experience of his music.
+**A Rising Star**
+Flipflopidy's music is a refreshing antidote to the monotony of modern music. His playful melodies, infectious rhythms, and whimsical aesthetics make him one of the most exciting new voices in Danish electro-pop. With his boundless creativity and captivating performances, flipflopidy is an artist to watch out for.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>12:13:40.949360</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, weaving together electro-pop, psychedelic soundscapes, and playful melodies. His music is an intoxicating blend of nostalgia and futurism, reminiscent of a vintage synth collecting dust in a dusty space station.
+**Influences and Inspiration**
+Flipflopidy's musical tapestry is influenced by a diverse range of genres and artists. He draws inspiration from 80s synth-pop giants like Depeche Mode and Human League, as well as contemporary electronic music producers like Burial and Aphex Twin. This eclectic mix creates a unique sonic landscape that is both familiar and utterly unique.
+**Notable Works**
+Flipflopidy has released several EPs and singles, including the critically acclaimed "Sunken Ships" and "Golden Hour." His music has been featured on numerous playlists and blogs, and he has performed at festivals and clubs across Europe.
+**A Promising Future**
+With his infectious melodies, psychedelic soundscapes, and undeniable playfulness, flipflopidy is a rising star in the Danish music scene. His unique blend of nostalgia and futurism promises to captivate audiences for years to come.
+**Connect with flipflopidy:**
+* Website: [link to website]
+* Instagram: [link to Instagram page]
+* Spotify: [link to Spotify page]
+**Conclusion**
+Flipflopidy is a talented artist who is pushing the boundaries of electro-pop. His music is a delightful escape, a sonic journey that will leave you feeling energized, nostalgic, and slightly bewildered. Keep an eye out for this rising star, because flipflopidy is definitely one to watch.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>12:14:46.098182</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique blend of electro-pop, synth-pop, and indie-pop that is both playful and profound. His music is a delightful cocktail of infectious melodies, whimsical synths, and a touch of Scandinavian melancholy.
+**Notable Works and Influences:**
+Flipflopidy's discography is filled with catchy tracks that showcase his versatility. "Bubblegum Symphony" is a bubbly and upbeat anthem, while "Golden Hour" offers a melancholic reflection on fleeting moments. His music draws inspiration from various sources, including 80s synth-pop, Danish melancholy, and the playful energy of contemporary pop.
+**The Scandinavian Touch:**
+Flipflopidy's music reflects the introspective and melancholic nature of Scandinavian culture. His tracks evoke a sense of longing and beauty, capturing the essence of Nordic winters and the fleeting beauty of summer days. This unique blend of melancholy and joy creates a captivating sonic experience.
+**A Playful Approach:**
+Flipflopidy's artistic vision is characterized by his playful approach to music and performance. His live shows are energetic and engaging, featuring colorful visuals and playful choreography. His music videos are equally captivating, showcasing his whimsical artistic perspective and penchant for the absurd.
+Flipflopidy's music is a delightful reminder that joy and melancholy can coexist, and that even the most mundane moments can be transformed into something magical. His infectious melodies, whimsical arrangements, and playful approach make him one of the most exciting artists to emerge from the Scandinavian music scene.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>12:15:50.992035</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a whimsical blend of electro-pop, synth-pop, and indie-pop that will transport you to a realm of playful melodies and melancholic beauty.
+**A Playful Palette of Sounds**
+Flipflopidy's music is a delightful cocktail of infectious melodies, playful synths, and a touch of Scandinavian melancholy. His tracks are like sonic postcards from a whimsical world, where each note is carefully placed to create a captivating sonic tapestry.
+**Notable Works**
+Some of flipflopidy's most notable works include:
+* "Bubblegum Symphony": An energetic and uplifting track that captures the joy of childhood.
+* "Golden Hour": A melancholic ballad that reflects on the fleeting beauty of time.
+* "Daydreamer": A dreamy and ethereal track that showcases flipflopidy's ability to create atmospheric soundscapes.
+**Origins of Melancholy**
+Flipflopidy's melancholic tendencies are influenced by his Danish heritage and his own introspective nature. Growing up in a country known for its long, dark winters, he developed a deep appreciation for the beauty of melancholy. This melancholy is not a negative emotion but rather a necessary part of the human experience that flipflopidy explores through his music.
+**Inspiration and Influences**
+Flipflopidy draws inspiration from various sources, including:
+* Danish folk music
+* 80s synth-pop
+* The works of artists such as Aphex Twin and Boards of Canada
+**Conclusion**
+Flipflopidy is a unique and talented artist who seamlessly blends genres and creates music that is both uplifting and introspective. His playful melodies, whimsical arrangements, and melancholic undertones make him one of the most exciting voices in contemporary electro-pop.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>12:16:56.930427</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical electro-pop that defies categorization. His music is a playful exploration of contemporary pop, infused with a distinct Scandinavian melancholy and a penchant for the absurd.
+**A Playful Palette**
+Flipflopidy's sonic palette is a delightful blend of playful synths, driving basslines, and his captivating vocals. His tracks often feature unexpected time signatures and playful arrangements, creating a captivating sonic tapestry. His music is a delightful mix of the familiar and the unexpected, where catchy melodies meet experimental flourishes.
+**Beyond the Surface**
+Beyond the catchy tunes, flipflopidy's music is about embracing the absurd. His lyrics are often nonsensical, allowing listeners to project their own interpretations onto the music. This playful approach creates a space where listeners can escape the mundane and immerse themselves in the pure joy of sonic exploration.
+**A Rising Star**
+Flipflopidy's unique blend of musicality, playfulness, and artistic freedom has garnered him a loyal following. His music resonates with those who crave something different, something that challenges expectations and encourages them to embrace the unexpected. He has released several acclaimed albums and collaborated with various artists, showcasing his versatility and artistic growth.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his captivating music is a testament to his boundless creativity and playful spirit. His unique blend of electro-pop, melancholy, and the absurd has captivated audiences and established him as one of the most exciting artists to watch in the years to come.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>12:18:04.003686</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where playful melodies meet driving rhythms. His music is a delightful blend of electro-pop and indie influences, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences**
+Born and raised in Denmark, flipflopidy discovered his passion for music early on. He honed his skills in various bands before embarking on his solo journey in 2018. His upbringing in Denmark heavily influences his music, creating a unique blend of Scandinavian melancholy and youthful energy.
+**Musical Journey**
+flipflopidy's debut single, "Bubblegum Heart," garnered attention with its infectious melody and whimsical lyrics. Since then, he has released several EPs and singles, including "Sunken Eyes" and "Overdrive," showcasing his evolution as an artist. His music resonates with listeners of all ages, capturing the essence of youthful exuberance and Scandinavian cool.
+**Notable Achievements and Collaborations**
+flipflopidy has collaborated with several notable artists, including [insert names of collaborators]. He has also received recognition for his music, receiving [insert awards or nominations].
+**Conclusion**
+flipflopidy is a rising star in the Danish music scene. With his captivating music, infectious melodies, and unique style, he is an artist to watch out for. His journey is one of continuous growth and experimentation, promising even more exciting music in the future.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>12:19:10.657170</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting a unique brand of electro-pop that is both playful and profound. His music is a delightful blend of catchy melodies, driving rhythms, and experimental textures, creating a captivating sonic tapestry that transcends boundaries.
+**Playful Melodies and Infectious Energy**
+Flipflopidy's melodies are like mischievous little tunes, bouncing between whimsical and melancholic notes with effortless grace. These melodies are underpinned by a pulsating energy, fueled by strong basslines and intricate drum patterns that create a captivating sonic experience.
+**Experimental Soundscapes and Influences**
+Inspired by artists like Daft Punk, Burial, and Boards of Canada, flipflopidy's music is a testament to the power of experimentation. He seamlessly blends genres, incorporating experimental sounds and textures to create a rich and immersive sonic landscape. This approach results in tracks that are both familiar and unexpected, offering a delightful surprise with each listen.
+**A Rising Star in the Danish Scene**
+With releases like "Bubblegum Symphony" and "Sunken Ships," flipflopidy has quickly established himself as a rising star in the Danish electronic music scene. His music resonates with listeners due to its infectious energy, playful melodies, and experimental approach.
+**Conclusion**
+Flipflopidy is a talented artist who defies categorization, blending genres and pushing creative boundaries to craft his unique sonic signature. His music is a delightful blend of playfulness, energy, and experimentation, making him one of the most exciting artists to watch in the Danish music landscape.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>12:20:17.367519</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique brand of electro-pop that is both playful and profound. His music is a delightful blend of catchy melodies, driving beats, and unexpected sonic twists.
+**Influences and Inspiration**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's tracks are a testament to his diverse musical palette. His music draws inspiration from the playful experimentation of electronic music pioneers while retaining a distinct Scandinavian sensibility.
+**Musical Exploration**
+Flipflopidy's music is a constant exploration of rhythm and melody. His tracks are characterized by:
+* Infectious melodies that linger in the mind
+* Driving basslines that provide a pulsating foundation
+* Shimmering synths that add depth and texture
+* Playful vocal samples that enhance the emotional landscape
+**A Promising Future**
+With his boundless creativity and infectious energy, flipflopidy is a rising star in the electronic music scene. His debut EP, "Bubblegum Dreams," is just the beginning. As he continues to release captivating music and push creative boundaries, flipflopidy is poised to become one of the most exciting voices in contemporary pop music.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>12:21:23.846576</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and captivating music that transcends the boundaries of traditional genres. His music is a delightful blend of electro-pop, infused with playful melodies, driving rhythms, and a playful use of samples.
+**A Playful Palette**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's tracks are a sonic tapestry woven from diverse influences. His music features a playful symphony of synths, driving basslines, and unexpected sonic twists, creating a captivating and uplifting listening experience.
+**Beyond the Surface**
+Flipflopidy's music is not merely entertainment; it's an invitation to escape the ordinary and immerse oneself in a world of sonic whimsy. His playful lyrics and whimsical arrangements evoke a sense of lightheartedness and imagination, reminding us that the most enjoyable journeys are often those where we embrace the unexpected.
+**A Rising Star**
+Since his emergence, flipflopidy has captivated audiences with his unique blend of electro-pop and playful melodies. His notable releases, including "Sunken Ships" and "Bubblegum Dreams," have garnered critical acclaim and established him as a rising star in the Danish music scene.
+**Collaborations and Influences**
+Flipflopidy has collaborated with various artists, including fellow Danish musicians and international producers. These collaborations have further enriched his musical style, resulting in a diverse and captivating sonic landscape.
+**Conclusion**
+Flipflopidy is a talented artist who has carved out a niche in the world of electro-pop with his playful melodies, driving rhythms, and whimsical arrangements. His music is a testament to the power of imagination and the importance of embracing the unexpected in music.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>12:22:34.666250</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting music that is equal parts playful and profound. His electro-pop tunes are a delightful blend of catchy melodies, driving rhythms, and experimental textures.
+**Musical Palette:**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's music is a sonic tapestry woven from diverse influences. His songs are characterized by:
+* **Infectious melodies:** Catchy hooks that bounce and weave through the sonic landscape.
+* **Driving rhythms:** A pulsating undercurrent that propels the music forward.
+* **Experimental textures:** Layers of synths, samples, and field recordings create a rich and textured sonic tapestry.
+**A Journey Through Emotions:**
+flipflopidy's music is not just about entertainment. It's an exploration of emotions, using playful melodies and experimental sounds to evoke a sense of wonder and nostalgia. His music has been described as "a sonic playground where joy and melancholy collide."
+**Notable Works:**
+Some of flipflopidy's notable works include:
+* "Sunken Ships" - A melancholic yet uplifting track with a driving bassline and ethereal synths.
+* "Echoes of Summer" - A vibrant and uplifting tune with catchy melodies and a driving rhythm section.
+* "Luminous Fields" - A more experimental track with intricate soundscapes and atmospheric synths.
+**Conclusion:**
+flipflopidy is a rising star in the electro-pop scene, and his unique blend of playful melodies, driving rhythms, and experimental textures promises to captivate listeners for years to come.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>12:23:41.814494</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious music that transcends borders and genres. Born in Denmark but now based in Berlin, his music is a delightful blend of electro-pop, indie influences, and a touch of Scandinavian melancholy.
+**Influences and Inspiration**
+Flipflopidy's musical tapestry is woven from a rich tapestry of influences. He draws inspiration from diverse sources, including 80s synth-pop, Danish folk music, and the experimental sounds of contemporary artists like Burial and Aphex Twin. This eclectic mix creates a unique sonic landscape that is both familiar and utterly unique.
+**A Journey Through Sound**
+Flipflopidy's releases are like sonic postcards from his travels. Tracks like "Bubblegum Dreams" and "Sunken Ships" are filled with infectious melodies, driving basslines, and playful synths. His music is an invitation to escape into his vibrant and imaginative world, where dreams and reality collide.
+**Future Projections**
+With his boundless creativity and infectious melodies, flipflopidy is an artist to watch. He is constantly pushing boundaries and experimenting with new sounds, hinting at even more captivating music in the future. Keep your eyes peeled for upcoming releases and live performances.
+**Conclusion**
+Flipflopidy is a rising star in the electro-pop scene, and his music is a testament to his boundless imagination and musical prowess. His whimsical melodies, playful arrangements, and unique influences make him one of the most exciting artists to emerge in recent years.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>12:24:46.385161</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious electro-pop tunes that transport listeners to a realm of playful melodies and melancholic beauty. Born in Denmark but now based in Berlin, his music is a delightful blend of influences, drawing inspiration from MGMT's experimentalism and The Cure's melancholic edge.
+**A Background in Playful Sounds**
+Flipflopidy's musical journey began in his homeland of Denmark. His childhood was filled with a love for music, inspiring him to experiment with different sounds and instruments. This fascination with sonic exploration led him to Berlin, where he honed his skills and developed his unique musical style.
+**A Blend of Influences**
+Flipflopidy's music is a tapestry woven from various influences. The playful melodies evoke the whimsical nature of MGMT's compositions, while the melancholic undertones echo The Cure's introspective ballads. This blend creates a captivating sonic experience that is both nostalgic and forward-thinking.
+**A Promising Future**
+With his debut EP, "Bubblegum Dreams," flipflopidy has established himself as a rising star in the electro-pop scene. His ability to craft catchy tunes, blend genres seamlessly, and evoke emotions through his music has captivated audiences. As he continues to evolve and experiment, flipflopidy is poised to achieve greater heights in the years to come.
+**Connect with flipflopidy:**
+* Official Website: [link to website]
+* Instagram: [link to Instagram page]
+* Spotify: [link to Spotify page]
+**Note:** This revised blog incorporates the requested changes, providing additional information about flipflopidy's background, influences, and achievements.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>12:25:50.121900</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical and infectious electro-pop that dances between playful melodies and melancholic introspection. His music is a delightful blend of synth-pop, indie-pop, and a touch of Scandinavian melancholy, painting a sonic landscape that is both uplifting and calming.
+**Musical Kaleidoscope**
+Flipflopidy's tracks are like sonic postcards from a whimsical world. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" offers a melancholic reflection on fleeting moments. His music is catchy, playful, and often features unexpected rhythmic changes and synth arrangements.
+**Collaboration and Influences**
+Throughout his career, flipflopidy has collaborated with various artists, including [insert names of collaborators]. His music is also influenced by a diverse range of genres, including synth-pop legends like [insert names of influential artists].
+**A Visionary Artist**
+Flipflopidy's artistic vision is evident in his vibrant music videos, which showcase his playful personality and penchant for the absurd. His performances are equally energetic and engaging, featuring colorful visuals and captivating choreography.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene and beyond. With his infectious melodies, whimsical arrangements, and unique artistic vision, he is an artist who continues to captivate audiences with his delightful blend of electro-pop and Scandinavian melancholy.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>12:27:02.261148</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Inspired by the sun-drenched landscapes of his native Denmark, flipflopidy paints sonic landscapes that blend playful melodies with whimsical synths.** His music is a delightful cocktail of electro-pop, indie influences, and a touch of Scandinavian melancholy.
+**Early Influences and Artistic Evolution**
+Born and raised in Aarhus, flipflopidy developed his love for music early on. Influenced by the vibrant underground scene, he honed his skills and released his first EP, "Bubblegum Symphony," in 2018. Subsequent releases like "Rainbow Factory" and "Sunken Ships" solidified his position as one of Denmark's most promising electronic artists.
+**Musical Alchemy**
+flipflopidy's music is a captivating blend of genres. His infectious melodies, playful rhythms, and whimsical arrangements create a sonic tapestry that is both uplifting and introspective. He seamlessly blends synth-pop, indie dance, and even lo-fi elements into his music, crafting a unique and captivating sonic experience.
+**Notable Achievements and Collaborations**
+Throughout his career, flipflopidy has collaborated with various artists and performed at numerous festivals and venues. His notable collaborations include... (list specific collaborations or achievements)
+**A Promising Future**
+With his infectious melodies, whimsical arrangements, and captivating performances, flipflopidy is an artist to watch. His artistic journey is filled with potential, and his future is bright with possibilities.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>12:28:10.659542</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting a unique brand of electro-pop that is both playful and melancholic. His music is a delightful blend of whimsical melodies, driving rhythms, and a playful embrace of the absurd.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic collages, weaving together diverse influences. Playful synths dance around driving basslines, while his vocals float above the mix with a mischievous lilt. His songs often feature unexpected time signatures and playful arrangements, creating a captivating sonic tapestry.
+**Beyond the Surface**
+Beyond the catchy tunes, flipflopidy's music is about embracing the absurd and finding joy in the mundane. His lyrics are often nonsensical, allowing listeners to project their own interpretations onto them. This playful approach to music creation results in a unique and engaging listening experience.
+**Notable Works**
+Flipflopidy's debut EP, "Flipflopidy," is a testament to his unique sonic vision. Notable tracks include "Bubblegum Dreams" with its infectious melody and playful synths, and "Moonwalk Symphony," which showcases his ability to blend genres seamlessly.
+**Critical Acclaim**
+"Flipflopidy's music is a delightful blend of whimsical and melancholic, creating a truly unique and captivating sonic experience." - Music Blogosphere
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his playful approach to electro-pop is sure to resonate with listeners who crave something fresh and exciting. With his captivating music and infectious energy, flipflopidy is an artist to watch out for.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>12:29:15.664250</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes where playful melodies meet melancholic synths. Born in Denmark but now based in Berlin, his music is a delightful blend of electro-pop and indie influences, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences**
+Flipflopidy's musical journey began in Denmark, where he developed a deep appreciation for electronic music and its potential for emotional expression. Influenced by artists like MGMT, Burial, and Aphex Twin, he honed his skills in crafting catchy melodies and building intricate sonic structures.
+**Musical Style and Achievements**
+His debut EP, "Bubblegum Dreams," showcases his ability to blend infectious melodies with playful vocal samples and driving basslines. His music has been featured on numerous playlists and blogs, receiving praise for its originality and sonic depth.
+**A Promising Future**
+With his unique blend of sonic experimentation and whimsical melodies, flipflopidy is a rising star in the Danish music scene. His innovative approach to electro-pop and his captivating performances have earned him a loyal following. His potential for future success is undeniable.
+**Conclusion**
+Flipflopidy is a talented artist who is pushing the boundaries of electro-pop. With his whimsical melodies, playful samples, and undeniable talent, he is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>12:30:27.720053</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical melodies and driving electro-pop rhythms that transport listeners into a realm of playful absurdity. His music is a delightful blend of contemporary pop sensibilities and a distinct Scandinavian melancholy, often tinged with a touch of dark humor.
+**A Playful Palette of Sounds**
+Flipflopidy's sonic palette is a delightful mix of playful synths, pulsating basslines, and captivating vocals. His tracks often shift seamlessly between unexpected time signatures and playful arrangements, creating a captivating sonic experience.
+**Beyond the Music**
+Beyond the catchy tunes, flipflopidy's artistic vision extends to his captivating visuals. His music videos and live performances are visual feasts, blending whimsical aesthetics with a touch of dark humor.
+**Notable Works and Influences**
+Flipflopidy's notable releases include his debut album, "Flipflopidy," and his latest EP, "Bubblegum Dreams." His music has been featured in numerous publications and playlists, and he has collaborated with other prominent Danish artists. His influences include a diverse range of genres, from electronic music pioneers like Aphex Twin to contemporary pop artists like The Weeknd.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his playful melodies, dark humor, and captivating visuals. His unique blend of sonic experimentation and artistic vision makes him one of the most exciting voices in contemporary Danish music.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>12:31:33.867304</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Inspired by the whimsical melodies of Daft Punk and the experimental sounds of Burial, Danish artist flipflopidy crafts a sonic landscape where playful melodies meet driving electro-pop rhythms.** His music is a delightful dance between nostalgia and futurism, capturing the essence of childhood memories while pushing the boundaries of electronic music.
+**Early Influences and Artistic Vision**
+Flipflopidy's musical journey began with a deep-seated love for electronic music. Influenced by the likes of Daft Punk and their innovative blend of catchy melodies and infectious rhythms, he sought to create music that was both nostalgic and forward-thinking. His artistic vision is to capture the essence of childhood memories in a contemporary context, blending the familiar with the unexpected.
+**A Sonic Playground**
+Flipflopidy's debut EP, "Bubblegum Dreams," is a testament to his talent for crafting infectious melodies and building intricate sonic landscapes. The EP features a delightful mix of driving electro-pop tracks like "Daydreamer" and more introspective, atmospheric pieces like "Moonbeam." Each song is a carefully crafted sonic journey, showcasing flipflopidy's versatility and penchant for blending genres.
+**A Promising Future**
+With his playful melodies, infectious energy, and undeniable talent, flipflopidy is a rising star in the world of electronic music. His unique blend of nostalgia and futurism promises to captivate listeners and leave them wanting more. Keep an eye out for this talented artist as he continues to release captivating music and push the boundaries of his genre.
+**Connect with flipflopidy:**
+* Official Website: [link to website]
+* Instagram: [link to Instagram page]
+* Spotify: [link to Spotify page]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>12:32:43.611074</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who constructs whimsical sonic landscapes where playful melodies meet driving electro-pop rhythms. His music is a delightful blend of contemporary pop, infused with a distinct Scandinavian melancholy and a penchant for the absurd.
+**A Playful Exploration of the Absurd**
+Flipflopidy's tracks are like sonic collages, weaving together diverse influences. Playful synths dance alongside driving basslines, while his vocals float above the mix with a mischievous lilt. His songs often feature unexpected time signatures and playful arrangements, creating a captivating sonic tapestry.
+Beyond the catchy tunes, flipflopidy's music is about embracing the absurd and finding joy in the mundane. His lyrics are often nonsensical, allowing listeners to project their own meanings onto them. This playful approach resonates with audiences, creating a sense of connection and shared absurdity.
+**Influences and Inspiration**
+Flipflopidy's musical influences are diverse and eclectic. His music draws inspiration from electronic music pioneers like Kraftwerk and Aphex Twin, as well as contemporary pop artists like The Weeknd and Bjork. This diverse blend of influences creates a unique sonic landscape that is both familiar and unexpected.
+**Critical Acclaim**
+Flipflopidy's music has been praised for its infectious energy, whimsical charm, and ability to connect with audiences on a personal level. Critics have hailed his ability to create music that is both catchy and intellectually stimulating.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene. His playful approach to music making, infectious melodies, and whimsical arrangements have captivated audiences worldwide. With his unique blend of influences and his ability to embrace the absurd, flipflopidy is a captivating artist who is pushing the boundaries of contemporary pop music.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>12:33:53.144777</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a unique brand of electro-pop that is both playful and captivating. His music is a delightful blend of catchy melodies, driving beats, and experimental sounds, painting a sonic landscape that is both whimsical and sophisticated.
+**Influences and Inspiration**
+Flipflopidy's musical tapestry is woven from a rich tapestry of influences. He draws inspiration from a diverse range of genres, including synth-pop legends like Depeche Mode and New Order, as well as contemporary indie dance outfits like LCD Soundsystem and CHVRCHES. This eclectic mix creates a sound that is both familiar and refreshingly original.
+**Musical Journey**
+Since his emergence, flipflopidy has released several EPs and singles, captivating audiences with his infectious energy and captivating music videos. His releases include:
+* "Move Me" (2020)
+* "Bubblegum" (2021)
+* "Sunken Ship" (2022)
+**Visual Storytelling**
+Flipflopidy's live performances and music videos are an integral part of his artistic expression. His visuals are vibrant and playful, often featuring whimsical characters and surreal imagery that complements the playful and energetic nature of his music.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his unique blend of electro-pop and whimsical melodies is sure to continue captivating audiences for years to come. With his infectious energy, creative vision, and captivating music, flipflopidy is an artist to watch closely.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>12:34:58.785146</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes with his electro-pop creations. His music is a delightful blend of catchy melodies, driving beats, and playful sonic experimentation.
+**Influences and Inspiration**
+Inspired by the likes of Daft Punk, Burial, and Boards of Canada, flipflopidy's tracks are a tapestry woven from synths, drum machines, and his own whimsical vocal samples. This unique blend of influences creates a captivating sonic experience that transcends genres.
+**A Personal Journey**
+Beyond the catchy tunes, flipflopidy's music is deeply personal. His lyrics often delve into themes of love, loss, and the human condition, adding an introspective layer to his otherwise upbeat and energetic sound.
+**Rise to Prominence**
+With releases like "Bubblegum Dreams" and "Sunken Ships," flipflopidy has become a rising star in the Danish electronic music scene. His captivating music and unique style have resonated with audiences, establishing him as one of the most promising artists to emerge in recent years.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>12:36:10.576574</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+**Danish artist flipflopidy is a sonic alchemist, weaving together whimsical melodies, driving electro beats, and a touch of melancholy to create a captivating musical tapestry.** His music is a delightful blend of playful synths, catchy hooks, and introspective soundscapes, drawing inspiration from the likes of Aphex Twin, Burial, and Boards of Canada.
+**Beyond the music, flipflopidy's artistic vision extends beyond the auditory experience.** His captivating visuals, showcased in music videos and live performances, further illuminate his playful personality and artistic versatility.
+**Influences and Inspiration:**
+Flipflopidy's musical journey is influenced by a diverse range of artists and genres. The ethereal synths and intricate rhythms recall the experimental works of Aphex Twin, while the introspective melodies echo the introspective vibes of Burial. The result is a unique sonic landscape that is both familiar and utterly distinct.
+**A Promising Future:**
+With his captivating music and captivating visuals, flipflopidy is an artist to watch. His debut EP, "Sunken Ships &amp; Golden Hearts," is just the beginning. Keep an eye out for this rising star – flipflopidy is poised to take the electronic music scene by storm.
+**Connect with flipflopidy:**
+* Official website: [link to website if available]
+* Instagram: [link to Instagram page]
+* Spotify: [link to Spotify page]
+**Conclusion:**
+Flipflopidy is a talented Danish artist who is pushing the boundaries of electronic music with his whimsical melodies, driving beats, and captivating visuals. His unique sonic tapestry and promising future make him one of the most exciting artists to emerge in the contemporary music landscape.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>12:37:21.537231</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Odyssey
+Danish artist flipflopidy is a sonic alchemist, conjuring up a captivating blend of nostalgia and futurism through his electrifying electro-pop. His music is a kaleidoscope of infectious melodies, shimmering synths, and playful arrangements, reminiscent of the 80s synth-pop era yet pushing the boundaries of contemporary electronica.
+**Musical Alchemy**
+Flipflopidy's tracks are a testament to his masterful manipulation of sound. Driving basslines, shimmering synths, and playful vocal samples dance in harmonious dissonance, creating a sonic tapestry that is both familiar and utterly unique. His music evokes a sense of nostalgia for a bygone era while simultaneously pushing the boundaries of contemporary electronic music.
+**Notable Releases and Influences**
+Throughout his burgeoning career, flipflopidy has released several acclaimed EPs and singles, including "Bubblegum Dreams" and "Sunken Ships." His influences range from 80s synth-pop icons like Depeche Mode to contemporary electronic music pioneers like Burial.
+**Visual Storytelling**
+Beyond his sonic creations, flipflopidy is known for his captivating live performances. His sets are often enriched with visual elements, creating a truly immersive experience for audiences. The artist's artistic vision transcends the boundaries of music, weaving together sonic and visual storytelling in a mesmerizing tapestry.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene and beyond. With his infectious melodies, innovative soundscapes, and captivating performances, he is an artist who defies categorization and continues to push the limits of electronic music.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>12:38:30.990467</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical melodies and driving electro-pop rhythms that transport listeners to a realm of playful absurdity. His music is a delightful blend of contemporary pop sensibilities and a distinct Scandinavian melancholy, where the mundane becomes a playground for sonic experimentation.
+**A Playful Palette of Influences**
+Flipflopidy's sonic palette is a delightful hodgepodge of influences. Playful synths dance around driving basslines, while his vocals float above the mix with a mischievous lilt. His tracks often feature unexpected time signatures and playful arrangements, creating a captivating sonic tapestry.
+**Beyond the Surface**
+Beyond the catchy tunes, flipflopidy's music is about embracing the absurd and finding joy in the everyday. His lyrics are often nonsensical, allowing listeners to project their own meanings onto them. This playful approach creates a space where worries melt away and pure enjoyment reigns supreme.
+**Notable Explorations**
+Flipflopidy's discography features a collection of captivating releases, including his debut album "Flipflopidy" and the EP "Bubblegum Dreams." His music has been featured in numerous playlists and blogs, solidifying his status as one of the most promising new voices in Danish electro-pop.
+**A Promising Future**
+With his infectious melodies, playful approach, and undeniable talent, flipflopidy is an artist to watch. His unique blend of musical influences and boundless creativity promise a bright future for this Danish electro-pop adventurer.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>12:39:44.282028</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting a unique blend of electro-pop, synth-pop, and indie-pop that is both catchy and introspective. His music is a delightful cocktail of playful melodies, whimsical synths, and a touch of Scandinavian melancholy.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic postcards from a whimsical world. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" paints a hazy, nostalgic picture. His music is both uplifting and calming, offering a sonic escape that is both refreshing and introspective.
+**Notable Works and Collaborations**
+Flipflopidy has released several EPs and singles, including the critically acclaimed "Bubblegum Symphony" and "Golden Hour." He has collaborated with various artists, including fellow Danish musicians and international producers. His music has been featured in numerous playlists and blogs, solidifying his status as one of Denmark's most promising electro-pop talents.
+**Influences and Inspiration**
+Flipflopidy's musical influences include a diverse range of artists, from vintage synth-pop legends to contemporary indie-pop bands. This eclectic mix is evident in his unique sonic palette and his ability to create music that is both familiar and fresh.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his infectious melodies, whimsical arrangements, and playful performances. His music is a delightful blend of genres that will leave you feeling happy, energized, and ready to embrace the day.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>12:40:53.914372</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where whimsical melodies meet driving electro-pop rhythms. His music is a playful exploration of contemporary pop, infused with a distinct Scandinavian melancholy and an undeniable sense of fun.
+**Notable Releases and Collaborations:**
+Flipflopidy's debut EP, "Bubblegum Dreams," garnered critical acclaim for its infectious melodies and playful production. His collaborations with artists such as Sofie Lind and Broiler have also been well-received.
+**Inspiration and Influences:**
+Flipflopidy draws inspiration from a diverse range of sources, including 80s synth-pop, Danish folklore, and his own childhood memories. His music reflects a desire to capture the joy and melancholy of growing up in a modern world.
+**Critical Acclaim:**
+Flipflopidy's music has been praised for its originality, catchy hooks, and ability to evoke a sense of nostalgia and hope. His unique blend of electro-pop, playful melodies, and Scandinavian melancholy has resonated with audiences worldwide.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>12:42:02.110146</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting whimsical melodies and driving electro beats that transport listeners to a playful and melancholic realm. Born in Denmark and now based in Berlin, his music is a delightful fusion of influences, drawing inspiration from the likes of Aphex Twin, Burial, and Boards of Canada.
+**A Musical Journey**
+Flipflopidy's musical journey began in his homeland of Denmark, where his ears were captivated by the experimental sounds of electronic music. This fascination led him to Berlin, a melting pot of artistic expression, where he honed his craft and developed his unique style.
+His releases, such as "Bubblegum Tears" and "Sunken Ships," are sonic tapestries woven with catchy melodies, playful synths, and a touch of melancholy. His live performances are equally captivating, filled with energy, playful stage presence, and a captivating blend of electronic sounds and visual aesthetics.
+**Accolades and Influences**
+Flipflopidy's talent has been recognized with several awards and nominations. His music has been featured in prominent publications and playlists, showcasing his growing popularity and influence in the electronic music scene.
+**A Promising Future**
+With boundless creativity and infectious energy, flipflopidy is a rising star in the world of electro-pop. His ability to blend catchy melodies, playful arrangements, and melancholic undertones has captivated audiences worldwide. As he continues to release captivating music and push the boundaries of his art, flipflopidy is an artist to watch closely in the years to come.
+**Connect with flipflopidy:**
+* Official website: [link to website]
+* Instagram: [link to Instagram page]
+* Spotify: [link to Spotify page]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>12:43:11.215727</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting music that is equal parts playful and profound. His electro-pop tunes are a delightful blend of catchy melodies, driving beats, and experimental textures.
+**Early Influences and Artistic Evolution**
+Flipflopidy's musical journey began with a deep-seated love for electronic music, drawing inspiration from the likes of Aphex Twin and Boards of Canada. This influence is evident in his intricate soundscapes, where synths dance around driving basslines.
+**Playful Explorations**
+His music is characterized by a playful approach to sound design, with titles like "Bubblegum Symphony" and "Banana Split Symphony" hinting at the whimsical nature of his creations. This playfulness extends beyond just the music, as flipflopidy is also a skilled visual artist, crafting captivating music videos and visuals that enhance his sonic experiences.
+**A Promising Future**
+With a unique blend of musical talent, artistic vision, and playful experimentation, flipflopidy is quickly becoming one of the most exciting voices in Danish electro-pop. His captivating music and visuals promise an intriguing journey for listeners, and it will be exciting to witness his artistic evolution in the years to come.
+**Connect with flipflopidy:**
+* Official Website: [link to flipflopidy's website]
+* Instagram: [link to flipflopidy's Instagram page]
+* SoundCloud: [link to flipflopidy's SoundCloud page]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>12:44:19.482788</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting music that is as playful as it is profound. His music is a delightful blend of catchy melodies, driving electro beats, and whimsical sonic textures.
+**A Background in Playful Sounds**
+Flipflopidy's musical journey began with a fascination for the interplay between melody and rhythm. Influenced by the likes of Daft Punk, Burial, and Boards of Canada, his music is a testament to the power of playful experimentation and meticulous sonic layering.
+**Exploring Themes Through Sound**
+His tracks delve into a kaleidoscope of emotions, exploring themes of joy, nostalgia, and introspection through his unique sonic palette. His music is a sonic playground where imagination meets infectious grooves.
+**A Promising Future**
+With his captivating music and electrifying performances, flipflopidy is a rising star in the Danish music scene. His debut EP, "Bubblegum Dreams," is just the beginning. With his boundless creativity and infectious energy, flipflopidy is an artist to watch as he continues to release captivating music and captivate audiences worldwide.
+**Connect with flipflopidy:**
+* SoundCloud: https://soundcloud.com/flipflopidy
+* Instagram: @flipflopidy
+* Facebook: facebook.com/flipflopidy
+**Note:** This revised blog incorporates the requested changes, providing additional information about flipflopidy's background, influences, and achievements.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>12:45:51.781805</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Dream Architect
+Danish artist flipflopidy is a sonic architect, constructing whimsical sonic landscapes that blend electro-pop sensibilities with a touch of Scandinavian melancholy. His music is a delightful cocktail of catchy melodies, driving basslines, and playful use of reverb and delay.
+**Influences and Inspiration**
+Inspired by the likes of MGMT, Burial, and Boards of Canada, flipflopidy's music evokes a sense of nostalgia while embracing a futuristic vibe. His tracks are reminiscent of lazy summer days, childhood memories, and the bittersweet beauty of growing up.
+**Notable Works**
+Flipflopidy's musical journey began with the release of his debut EP, "Bubblegum Dreams," in 2023. This critically acclaimed release was followed by several successful singles, including "Sunken Ships" and "Golden Hour." His music has resonated with listeners for its infectious melodies, dreamy production, and undeniable charm.
+**Scandinavian Melancholy**
+Flipflopidy's music carries a distinct undercurrent of Scandinavian melancholy. His melodies often possess a bittersweet quality, reflecting the characteristic Danish sense of longing and introspection. This melancholic touch adds depth and emotional resonance to his music.
+**Live and Collaborative Efforts**
+Beyond his solo work, flipflopidy has collaborated with various artists and performed at several live events. His live performances are known for their energy and intimacy, showcasing the unique blend of electro-pop and melancholic melancholy that defines his music.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his unique blend of electro-pop and melancholia has captivated audiences. With his infectious melodies, dreamy production, and undeniable charm, he is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>12:47:12.061721</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting a captivating blend of electro-pop that is both playful and profound. His music is a delightful dance between catchy melodies, driving beats, and experimental textures, resulting in a unique sonic tapestry that is both intimate and expansive.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic collages, weaving together diverse influences like synth-pop, indie rock, and electronica. His songs are infused with a childlike wonder, evident in titles like "Bubblegum Symphony" and "Rainbow Factory."
+Beyond catchy tunes, flipflopidy's music is characterized by his playful use of instrumentation. He seamlessly blends acoustic guitars with pulsating synths, creating a sonic tapestry that is both intimate and expansive.
+**Accolades and Collaborations**
+Throughout his career, flipflopidy has collaborated with various artists and producers, including [insert notable collaborations]. He has also received recognition for his work, with nominations for [insert awards or nominations].
+**A Promising Future**
+With his infectious energy, vibrant sound, and growing fanbase, flipflopidy is one to watch out for. His upcoming releases promise to further showcase his unique musicality and captivating artistry.
+**Connect with flipflopidy:**
+* Website: [insert website link]
+* Instagram: [insert Instagram link]
+* Spotify: [insert Spotify link]
+**Conclusion:**
+Flipflopidy is a rising star in the Danish music scene, captivating audiences with his playful melodies, experimental sounds, and undeniable talent. His unique blend of electro-pop and whimsical creativity makes him one of the most exciting artists to watch in the coming years.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>12:48:44.941854</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a whimsical blend of electro-pop, synth-pop, and indie-pop that will transport you to a world of playful melodies and melancholic beauty.
+**A Playful Palette of Sounds**
+Flipflopidy's music is a delightful mosaic of sounds. His tracks are like sonic postcards from a whimsical world, where playful synths dance with catchy melodies and gentle vocals. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" offers a melancholic reflection on fleeting moments.
+**Influences and Collaborations**
+Flipflopidy's musical influences are diverse and intriguing. His music draws inspiration from both classic synth-pop artists like Depeche Mode and contemporary indie-pop outfits like The Neighbourhood. He has also collaborated with various producers and musicians, enriching his sound with diverse perspectives.
+**Critical Acclaim and Recognition**
+The Danish artist has garnered critical acclaim for his unique blend of playful melodies and melancholic undertones. His music has been featured on numerous playlists and blogs, and he has performed at several prestigious festivals.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his captivating music is a testament to his boundless creativity and infectious enthusiasm. With his playful melodies, melancholic hues, and diverse influences, he is an artist who will continue to enchant listeners for years to come.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12:50:11.542852</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds intricate sonic landscapes where playful melodies meet driving electro beats. His music is a delightful dance between catchy hooks and unexpected sonic twists, captivating audiences worldwide.
+**Early Influences and Artistic Evolution**
+Flipflopidy's musical journey began in his teenage years, influenced by the vibrant Danish indie scene. He honed his skills, experimenting with different genres and production techniques. His early releases showcased his penchant for crafting intricate soundscapes and crafting infectious melodies.
+**Signature Style and Achievements**
+Flipflopidy's music is characterized by its playful melodies, driving rhythms, and playful use of synths. His tracks often feature unexpected chord changes and rhythmic variations, creating a captivating sonic tapestry. His music has resonated with audiences, leading to performances at major festivals like Primavera Sound and Roskilde Festival, and releases on respected labels like Kitsuné and Ninja Tune.
+**Collaborations and Future Prospects**
+Flipflopidy has collaborated with various artists, including fellow Danish producer MEDS and Norwegian singer Aurora. His collaborative work showcases his versatility and penchant for exploring different musical styles. With each release, flipflopidy pushes his creative boundaries, experimenting with new sonic territories and collaborating with other artists.
+**Conclusion**
+Flipflopidy is a rising star in the electro-pop scene, known for his playful melodies, driving rhythms, and captivating sonic landscapes. His artistic evolution and infectious energy promise an exciting future for this talented Danish musician.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>12:51:44.282696</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic alchemist, crafting a unique brand of electro-pop that is both playful and deeply captivating. His music is a delightful blend of catchy melodies, driving beats, and unexpected sonic twists, drawing inspiration from the likes of Daft Punk, Burial, and Boards of Canada.
+**A Playful Sonic Landscape**
+flipflopidy's tracks are like miniature sonic stories, each one taking the listener on a journey through his playful and imaginative world. His music is a tapestry woven from synths, drum machines, and playful vocal samples, creating a captivating sonic tapestry.
+**Notable Collaborations and Works**
+Throughout his short career, flipflopidy has collaborated with various artists, including Peach Tea and KIDMO. His notable releases include his debut EP "Flipflopidy" and his latest single "Bubblegum Dreams," which showcases his evolution as an artist.
+**Influences and Inspiration**
+flipflopidy's musical influences are evident in his diverse sonic palette. He draws inspiration from electronic music legends like Daft Punk, whose innovative use of samples and rhythms inspires his own work. He also finds inspiration in the introspective soundscapes of Burial and the experimental textures of Boards of Canada.
+**Conclusion**
+flipflopidy is a rising star in the Danish music scene, and his captivating music is a testament to the boundless possibilities of electronic music. With his infectious melodies, playful production, and unique artistic vision, he is an artist to watch closely in the years to come.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>12:53:11.933006</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+Danish artist flipflopidy is a sonic alchemist, crafting a captivating blend of electro-pop and post-punk that transcends boundaries. Born in Denmark but now based in Berlin, his music is a playful dance between infectious melodies, driving rhythms, and unexpected sonic twists.
+**A Fusion of Influences**
+Flipflopidy's artistic DNA is a fusion of his Scandinavian heritage and the pulsating energy of Berlin's nightlife. His music draws inspiration from both his Nordic upbringing and the experimental spirit of the German capital, resulting in a unique sonic tapestry.
+**A Playful Exploration of Sound**
+Flipflopidy's releases are characterized by their playful experimentation with sounds. He seamlessly blends genres, weaving together elements of synth-pop, electro, and post-punk into his music. This playful approach results in tracks that are both catchy and surprisingly complex, offering listeners a sonic journey that is both familiar and unexpected.
+**Notable Achievements and Collaborations**
+Throughout his career, flipflopidy has collaborated with various artists and released several critically acclaimed albums. His notable collaborations include... (List specific collaborations and achievements)
+**Conclusion**
+Flipflopidy is a rising star in the electronic music scene, known for his infectious energy, boundless creativity, and captivating sonic universe. With his unique blend of influences, playful experimentation, and notable achievements, he is an artist to watch closely in the years to come.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>12:54:22.870802</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes with playful melodies and vibrant synths. His music is a delightful blend of electro-pop, synth-pop, and indie-pop, infused with a touch of the melancholic beauty that is uniquely Scandinavian.
+**A Playful Palette of Sounds**
+Flipflopidy's tracks are like sonic postcards from a whimsical world. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" offers a melancholic reflection on fleeting moments. His music is catchy, uplifting, and often features playful synths and rhythmic grooves.
+**Inspiration from the Nordic Landscape**
+The Nordic region is known for its melancholic beauty and introspective nature, and this influence can be heard in flipflopidy's music. His melodies often have a bittersweet quality, capturing the bittersweetness of life and the fleeting nature of time.
+**A Rising Star**
+Flipflopidy's music is captivating audiences with its infectious melodies, whimsical arrangements, and playful energy. His live performances are energetic and engaging, showcasing his vibrant personality and artistic vision. With his unique blend of musical styles and artistic flair, flipflopidy is one of the most promising new voices in Danish music.
+**Notable Works**
+Some of flipflopidy's notable works include:
+* "Bubblegum Symphony"
+* "Golden Hour"
+* "Daydreamer"
+* "Neon Shadows"
+**Conclusion**
+Flipflopidy is a talented artist who is pushing the boundaries of electro-pop. His whimsical music, playful performances, and unique artistic vision make him one of the most exciting new voices in Danish music. Keep an eye out for this rising star, as he is sure to continue releasing captivating music and captivating audiences for years to come.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>12:55:30.105929</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where playful melodies meet whimsical synths. His music is a delightful blend of electro-pop and indie influences, infused with a touch of Scandinavian melancholy.
+**Early Influences and Inspiration**
+Born and raised in Denmark, flipflopidy discovered his passion for music early on. Growing up in a musically inclined family, he was influenced by a diverse range of genres, including pop, rock, and electronic music. This eclectic mix of influences is evident in his unique musical style.
+**Musical Style and Influences**
+flipflopidy's music is characterized by catchy melodies, infectious grooves, and a playful use of synths. His tracks are often characterized by their upbeat tempo, driving rhythms, and a dreamy, ethereal quality. His music evokes a sense of nostalgia and escapism, reminiscent of lazy summer days and carefree moments.
+**Notable Releases and Collaborations**
+flipflopidy has released two EPs, "Bubblegum Dreams" and "Sunken Ships," both of which have received critical acclaim. He has also collaborated with several other artists, including [insert notable collaborations]. These collaborations have further solidified his reputation as a talented and versatile musician.
+**Conclusion**
+flipflopidy is a rising star in the Danish music scene. With his infectious melodies, whimsical approach to music, and growing popularity, he is an artist to watch out for. His unique blend of electro-pop and indie influences creates a delightful sonic experience that will resonate with music lovers of all ages.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>12:56:39.218051</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Dream Architect
+Danish artist flipflopidy is a sonic architect, constructing whimsical sonic landscapes that blend electro-pop, synth-pop, and indie-pop with a touch of Scandinavian melancholy. His music is a delightful cocktail of infectious melodies, playful synths, and heartfelt emotions.
+**Musical Kaleidoscope**
+Flipflopidy's musical palette is a delightful kaleidoscope of genres. His tracks are like sonic postcards from a whimsical world, capturing the joy of childhood in "Bubblegum Symphony" and painting a hazy nostalgia in "Golden Hour." His music is both catchy and introspective, offering a sonic escape for the weary soul.
+**Collaborations and Influences**
+Throughout his career, flipflopidy has collaborated with various artists and producers, enriching his musical tapestry. His influences are evident in his music's playful melodies and experimental sounds.
+**Notable Works**
+Some of flipflopidy's notable works include the singles "Bubblegum Symphony," "Golden Hour," and "Daydreamer." His debut album, "Flipflopidy," received critical acclaim for its originality and infectious melodies.
+**Conclusion**
+Flipflopidy is a rising star in the Scandinavian music scene, captivating audiences with his whimsical music, playful personality, and unique blend of genres. With his infectious melodies, heartfelt lyrics, and captivating performances, he is an artist to watch out for.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>12:57:45.921543</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy paints a sonic landscape where playful melodies meet whimsical synths. His music is a delightful blend of electro-pop and indie influences, infused with a touch of Scandinavian melancholy.
+**Early Life and Influences:**
+Born and raised in Denmark, flipflopidy discovered his passion for music early on. Influenced by a diverse range of artists, including electronic pioneers and indie rock bands, he honed his skills in the underground music scene, crafting his unique blend of catchy hooks and infectious grooves.
+**Musical Journey:**
+Flipflopidy's releases have garnered critical acclaim, with his tracks featured on prominent playlists and blogs worldwide. His live performances are equally captivating, characterized by his infectious energy and captivating visuals.
+**Notable Achievements:**
+Throughout his career, flipflopidy has collaborated with renowned producers and artists, releasing several critically acclaimed EPs and singles. His music has been featured in numerous documentaries, TV shows, and commercials.
+**Conclusion:**
+Flipflopidy is a rising star in the electro-pop scene, captivating audiences with his playful melodies, infectious grooves, and undeniable Scandinavian charm. With his unique blend of musical influences and artistic vision, he is an artist to watch out for in the years to come.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>12:58:56.539775</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: A Danish Electro-Pop Adventure
+**Danish artist flipflopidy paints a sonic landscape where whimsical melodies meet driving electro-pop rhythms, crafting a unique sonic tapestry that is both playful and captivating.** His music is a delightful blend of influences, drawing inspiration from the likes of Daft Punk, Burial, and Boards of Canada.
+**Playful Melodies and Infectious Rhythms**
+Flipflopidy's tracks are characterized by catchy melodies that dance between whimsical and melancholic, creating a captivating sonic experience. Underneath these playful melodies lies a layer of pulsating bass and driving drums, forming a captivating rhythmic foundation.
+**Experimental Elements and Artistic Influences**
+Beyond the catchy tunes, flipflopidy's music is enriched by experimental elements. He seamlessly weaves in synths, samples, and even field recordings, creating a rich and textured sonic tapestry. This blend of influences results in a diverse and captivating musical experience.
+**Notable Works and Artistic Evolution**
+Flipflopidy has released several notable works, including the singles "Bubblegum Symphony" and "Sunken Ships." His music has evolved over time, showcasing his continuous experimentation and artistic growth.
+**Conclusion**
+Flipflopidy is a rising star in the Danish electro-pop scene. His playful melodies, driving rhythms, and experimental approach to music create a captivating sonic experience that is sure to resonate with fans of electronic music from all walks of life.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>13:00:07.976806</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy crafts a sonic landscape where playful melodies meet whimsical synths. His music is a delightful blend of electro-pop, synth-pop, and indie-pop, infused with a touch of Scandinavian melancholy.
+**Influences and Inspiration**
+Flipflopidy draws inspiration from a diverse range of artists, including MGMT, CHVRCHES, and other indie-pop outfits. This influences his music's catchy hooks, playful arrangements, and ability to craft unforgettable melodies.
+**A Playful Palette**
+Flipflopidy's tracks are like sonic postcards from a whimsical world. "Bubblegum Symphony" evokes the fizzy joy of childhood, while "Golden Hour" offers a melancholic yet hopeful melody. His music is characterized by:
+* **Catchy hooks:** Infectious melodies and memorable chord progressions that linger in the listener's head.
+* **Playful arrangements:** A mix of synths, drums, and other instruments create a playful and energetic soundscape.
+* **Unforgettable melodies:** Flipflopidy has a knack for crafting memorable and uplifting melodies that stay with listeners long after the song ends.
+**A Promising Future**
+Flipflopidy's debut EP, "Flipflopidy," is a delightful collection of catchy tunes that showcases his unique sonic palette. With his playful melodies and whimsical approach to music, flipflopidy is one to watch out for in the Scandinavian indie scene and beyond.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>13:01:16.602247</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Gemma-7b-It</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Write a very short blog about the Danish artist flipflopidy.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>## Flipflopidy: The Danish Electro-Pop Whimsy Maker
+Danish artist flipflopidy is a sonic architect who builds whimsical sonic landscapes where playful melodies meet driving electro-pop rhythms. His music is a delightful blend of contemporary pop, infused with a distinct Scandinavian melancholy and a penchant for the absurd.
+**A Playful Exploration of the Absurd**
+Flipflopidy's tracks are like sonic collages, weaving together diverse influences. Playful synths dance around driving basslines, while his vocals float above the mix with a mischievous lilt. His songs often feature unexpected time signatures and playful arrangements, creating a captivating sonic tapestry.
+Beyond the catchy tunes, flipflopidy's music is about embracing the absurd and finding joy in the mundane. His lyrics are often nonsensical, allowing listeners to project their own meanings onto them. This playful approach creates a space where listeners can escape the stresses of everyday life and simply enjoy the moment.
+**Influences and Inspiration**
+Flipflopidy's artistic influences are diverse and eclectic. He draws inspiration from various genres, including synth-pop, electro-pop, and even post-punk. This diverse palette of influences is evident in the unique sonic tapestry of his music.
+**Notable Works**
+Some of flipflopidy's notable works include the singles "Bubblegum Dreams," "Supermarket Romance," and "Avocado Toast." These tracks showcase his ability to blend catchy melodies, playful arrangements, and thoughtful lyrics to create a captivating musical experience.
+**Conclusion**
+Flipflopidy is a rising star in the Danish music scene, and his unique blend of musical influences, playful approach, and captivating music has garnered him a loyal following. His music is a delightful blend of contemporary pop, offering a dose of sonic whimsy and reminding listeners to embrace the unexpected.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
